--- a/AccessibleVaccineDashboardData/2021-02-17.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B91E29ED-8503-49C8-894F-CD47BCD0F0C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B73D61-7BB8-4513-AE32-B29F126D855B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="305">
   <si>
     <t>County Name</t>
   </si>
@@ -1573,7 +1573,7 @@
         <v>299</v>
       </c>
       <c r="B2" s="29">
-        <v>44243</v>
+        <v>44244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1746,15 +1746,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>4213172</v>
+        <v>4268998</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2998680</v>
+        <v>3020660</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1214492</v>
+        <v>1248338</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1827,13 +1827,13 @@
         <v>6400</v>
       </c>
       <c r="D4" s="37">
-        <v>4132</v>
+        <v>4321</v>
       </c>
       <c r="E4" s="37">
-        <v>2779</v>
+        <v>2791</v>
       </c>
       <c r="F4" s="37">
-        <v>1353</v>
+        <v>1530</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1865,10 +1865,10 @@
         <v>2993</v>
       </c>
       <c r="E5" s="37">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="F5" s="37">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1897,13 +1897,13 @@
         <v>17900</v>
       </c>
       <c r="D6" s="37">
-        <v>13432</v>
+        <v>13486</v>
       </c>
       <c r="E6" s="37">
-        <v>9073</v>
+        <v>9114</v>
       </c>
       <c r="F6" s="37">
-        <v>4359</v>
+        <v>4372</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1932,13 +1932,13 @@
         <v>1300</v>
       </c>
       <c r="D7" s="37">
-        <v>3018</v>
+        <v>3043</v>
       </c>
       <c r="E7" s="37">
-        <v>2247</v>
+        <v>2255</v>
       </c>
       <c r="F7" s="37">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1967,13 +1967,13 @@
         <v>900</v>
       </c>
       <c r="D8" s="37">
-        <v>1800</v>
+        <v>1828</v>
       </c>
       <c r="E8" s="37">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="F8" s="37">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2002,13 +2002,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="37">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E9" s="37">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" s="37">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2037,13 +2037,13 @@
         <v>4100</v>
       </c>
       <c r="D10" s="37">
-        <v>4722</v>
+        <v>4771</v>
       </c>
       <c r="E10" s="37">
-        <v>3365</v>
+        <v>3391</v>
       </c>
       <c r="F10" s="37">
-        <v>1357</v>
+        <v>1380</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2072,13 +2072,13 @@
         <v>2300</v>
       </c>
       <c r="D11" s="37">
-        <v>4674</v>
+        <v>4824</v>
       </c>
       <c r="E11" s="37">
-        <v>3617</v>
+        <v>3723</v>
       </c>
       <c r="F11" s="37">
-        <v>1057</v>
+        <v>1101</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2107,13 +2107,13 @@
         <v>7425</v>
       </c>
       <c r="D12" s="37">
-        <v>2443</v>
+        <v>2563</v>
       </c>
       <c r="E12" s="37">
         <v>1438</v>
       </c>
       <c r="F12" s="37">
-        <v>1005</v>
+        <v>1125</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2142,13 +2142,13 @@
         <v>600</v>
       </c>
       <c r="D13" s="37">
-        <v>2590</v>
+        <v>2613</v>
       </c>
       <c r="E13" s="37">
-        <v>2065</v>
+        <v>2084</v>
       </c>
       <c r="F13" s="37">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2177,13 +2177,13 @@
         <v>10900</v>
       </c>
       <c r="D14" s="37">
-        <v>5874</v>
+        <v>6049</v>
       </c>
       <c r="E14" s="37">
-        <v>4016</v>
+        <v>4124</v>
       </c>
       <c r="F14" s="37">
-        <v>1858</v>
+        <v>1925</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2247,13 +2247,13 @@
         <v>23100</v>
       </c>
       <c r="D16" s="37">
-        <v>8321</v>
+        <v>8333</v>
       </c>
       <c r="E16" s="37">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="F16" s="37">
-        <v>2764</v>
+        <v>2771</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2282,13 +2282,13 @@
         <v>58050</v>
       </c>
       <c r="D17" s="37">
-        <v>35999</v>
+        <v>36083</v>
       </c>
       <c r="E17" s="37">
-        <v>24677</v>
+        <v>24729</v>
       </c>
       <c r="F17" s="37">
-        <v>11322</v>
+        <v>11354</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2317,13 +2317,13 @@
         <v>452750</v>
       </c>
       <c r="D18" s="37">
-        <v>296160</v>
+        <v>299436</v>
       </c>
       <c r="E18" s="37">
-        <v>207573</v>
+        <v>209431</v>
       </c>
       <c r="F18" s="37">
-        <v>88587</v>
+        <v>90005</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2352,13 +2352,13 @@
         <v>1300</v>
       </c>
       <c r="D19" s="37">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="E19" s="37">
-        <v>1571</v>
+        <v>1579</v>
       </c>
       <c r="F19" s="37">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G19" s="38">
         <v>10092</v>
@@ -2387,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="37">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="37">
         <v>17</v>
@@ -2422,13 +2422,13 @@
         <v>3000</v>
       </c>
       <c r="D21" s="37">
-        <v>2712</v>
+        <v>2803</v>
       </c>
       <c r="E21" s="37">
-        <v>1681</v>
+        <v>1730</v>
       </c>
       <c r="F21" s="37">
-        <v>1031</v>
+        <v>1073</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2457,13 +2457,13 @@
         <v>15850</v>
       </c>
       <c r="D22" s="37">
-        <v>6942</v>
+        <v>7124</v>
       </c>
       <c r="E22" s="37">
-        <v>4657</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="37">
-        <v>2285</v>
+        <v>2324</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2492,13 +2492,13 @@
         <v>45000</v>
       </c>
       <c r="D23" s="37">
-        <v>52290</v>
+        <v>53675</v>
       </c>
       <c r="E23" s="37">
-        <v>35966</v>
+        <v>36403</v>
       </c>
       <c r="F23" s="37">
-        <v>16324</v>
+        <v>17272</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2527,13 +2527,13 @@
         <v>33900</v>
       </c>
       <c r="D24" s="37">
-        <v>22484</v>
+        <v>22927</v>
       </c>
       <c r="E24" s="37">
-        <v>16403</v>
+        <v>16685</v>
       </c>
       <c r="F24" s="37">
-        <v>6081</v>
+        <v>6242</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2562,13 +2562,13 @@
         <v>1600</v>
       </c>
       <c r="D25" s="37">
-        <v>2276</v>
+        <v>2306</v>
       </c>
       <c r="E25" s="37">
-        <v>1919</v>
+        <v>1948</v>
       </c>
       <c r="F25" s="37">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2597,13 +2597,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E26" s="37">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F26" s="37">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2632,13 +2632,13 @@
         <v>1300</v>
       </c>
       <c r="D27" s="37">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E27" s="37">
         <v>987</v>
       </c>
       <c r="F27" s="37">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2667,13 +2667,13 @@
         <v>3000</v>
       </c>
       <c r="D28" s="37">
-        <v>3605</v>
+        <v>3638</v>
       </c>
       <c r="E28" s="37">
-        <v>2571</v>
+        <v>2589</v>
       </c>
       <c r="F28" s="37">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2702,13 +2702,13 @@
         <v>1100</v>
       </c>
       <c r="D29" s="37">
-        <v>2140</v>
+        <v>2181</v>
       </c>
       <c r="E29" s="37">
-        <v>1567</v>
+        <v>1605</v>
       </c>
       <c r="F29" s="37">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2737,13 +2737,13 @@
         <v>8475</v>
       </c>
       <c r="D30" s="37">
-        <v>4690</v>
+        <v>5037</v>
       </c>
       <c r="E30" s="37">
-        <v>3603</v>
+        <v>3913</v>
       </c>
       <c r="F30" s="37">
-        <v>1087</v>
+        <v>1124</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2772,13 +2772,13 @@
         <v>3700</v>
       </c>
       <c r="D31" s="37">
-        <v>3372</v>
+        <v>3428</v>
       </c>
       <c r="E31" s="37">
-        <v>2327</v>
+        <v>2361</v>
       </c>
       <c r="F31" s="37">
-        <v>1045</v>
+        <v>1067</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2807,13 +2807,13 @@
         <v>1400</v>
       </c>
       <c r="D32" s="37">
-        <v>2620</v>
+        <v>2659</v>
       </c>
       <c r="E32" s="37">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="F32" s="37">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2842,13 +2842,13 @@
         <v>1300</v>
       </c>
       <c r="D33" s="37">
-        <v>1599</v>
+        <v>1612</v>
       </c>
       <c r="E33" s="37">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="F33" s="37">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2877,13 +2877,13 @@
         <v>89425</v>
       </c>
       <c r="D34" s="37">
-        <v>75810</v>
+        <v>76552</v>
       </c>
       <c r="E34" s="37">
-        <v>52589</v>
+        <v>53007</v>
       </c>
       <c r="F34" s="37">
-        <v>23221</v>
+        <v>23545</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2912,13 +2912,13 @@
         <v>400</v>
       </c>
       <c r="D35" s="37">
-        <v>1195</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="37">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="F35" s="37">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2947,13 +2947,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="37">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E36" s="37">
         <v>741</v>
       </c>
       <c r="F36" s="37">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2982,13 +2982,13 @@
         <v>700</v>
       </c>
       <c r="D37" s="37">
-        <v>1278</v>
+        <v>1352</v>
       </c>
       <c r="E37" s="37">
-        <v>870</v>
+        <v>922</v>
       </c>
       <c r="F37" s="37">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3017,13 +3017,13 @@
         <v>1300</v>
       </c>
       <c r="D38" s="37">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="E38" s="37">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F38" s="37">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3052,13 +3052,13 @@
         <v>11700</v>
       </c>
       <c r="D39" s="37">
-        <v>4378</v>
+        <v>4498</v>
       </c>
       <c r="E39" s="37">
-        <v>2947</v>
+        <v>3007</v>
       </c>
       <c r="F39" s="37">
-        <v>1431</v>
+        <v>1491</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3087,13 +3087,13 @@
         <v>6800</v>
       </c>
       <c r="D40" s="37">
-        <v>5601</v>
+        <v>5690</v>
       </c>
       <c r="E40" s="37">
-        <v>3843</v>
+        <v>3882</v>
       </c>
       <c r="F40" s="37">
-        <v>1758</v>
+        <v>1808</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3122,13 +3122,13 @@
         <v>1700</v>
       </c>
       <c r="D41" s="37">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="E41" s="37">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F41" s="37">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3157,13 +3157,13 @@
         <v>5375</v>
       </c>
       <c r="D42" s="37">
-        <v>2816</v>
+        <v>2857</v>
       </c>
       <c r="E42" s="37">
-        <v>2243</v>
+        <v>2264</v>
       </c>
       <c r="F42" s="37">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3192,13 +3192,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="E43" s="37">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F43" s="37">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3227,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="E44" s="37">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F44" s="37">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3297,13 +3297,13 @@
         <v>143350</v>
       </c>
       <c r="D46" s="37">
-        <v>150622</v>
+        <v>153600</v>
       </c>
       <c r="E46" s="37">
-        <v>113983</v>
+        <v>115412</v>
       </c>
       <c r="F46" s="37">
-        <v>36639</v>
+        <v>38188</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3367,13 +3367,13 @@
         <v>2600</v>
       </c>
       <c r="D48" s="37">
-        <v>3139</v>
+        <v>3228</v>
       </c>
       <c r="E48" s="37">
-        <v>2502</v>
+        <v>2552</v>
       </c>
       <c r="F48" s="37">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3402,13 +3402,13 @@
         <v>20500</v>
       </c>
       <c r="D49" s="37">
-        <v>21699</v>
+        <v>22120</v>
       </c>
       <c r="E49" s="37">
-        <v>16657</v>
+        <v>16989</v>
       </c>
       <c r="F49" s="37">
-        <v>5042</v>
+        <v>5131</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3437,13 +3437,13 @@
         <v>2950</v>
       </c>
       <c r="D50" s="37">
-        <v>2707</v>
+        <v>2714</v>
       </c>
       <c r="E50" s="37">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="F50" s="37">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3472,10 +3472,10 @@
         <v>400</v>
       </c>
       <c r="D51" s="37">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E51" s="37">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F51" s="37">
         <v>79</v>
@@ -3507,13 +3507,13 @@
         <v>4600</v>
       </c>
       <c r="D52" s="37">
-        <v>4677</v>
+        <v>4872</v>
       </c>
       <c r="E52" s="37">
-        <v>3323</v>
+        <v>3503</v>
       </c>
       <c r="F52" s="37">
-        <v>1354</v>
+        <v>1369</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3542,13 +3542,13 @@
         <v>9025</v>
       </c>
       <c r="D53" s="37">
-        <v>6395</v>
+        <v>6512</v>
       </c>
       <c r="E53" s="37">
-        <v>4551</v>
+        <v>4591</v>
       </c>
       <c r="F53" s="37">
-        <v>1844</v>
+        <v>1921</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E56" s="37">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F56" s="37">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3682,13 +3682,13 @@
         <v>2450</v>
       </c>
       <c r="D57" s="37">
-        <v>1432</v>
+        <v>1450</v>
       </c>
       <c r="E57" s="37">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="F57" s="37">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3717,10 +3717,10 @@
         <v>700</v>
       </c>
       <c r="D58" s="37">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E58" s="37">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F58" s="37">
         <v>80</v>
@@ -3752,13 +3752,13 @@
         <v>6850</v>
       </c>
       <c r="D59" s="37">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E59" s="37">
-        <v>1793</v>
+        <v>1799</v>
       </c>
       <c r="F59" s="37">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3787,13 +3787,13 @@
         <v>547325</v>
       </c>
       <c r="D60" s="37">
-        <v>343460</v>
+        <v>349699</v>
       </c>
       <c r="E60" s="37">
-        <v>245718</v>
+        <v>248497</v>
       </c>
       <c r="F60" s="37">
-        <v>97742</v>
+        <v>101202</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3822,13 +3822,13 @@
         <v>1100</v>
       </c>
       <c r="D61" s="37">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="E61" s="37">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="F61" s="37">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3857,13 +3857,13 @@
         <v>2300</v>
       </c>
       <c r="D62" s="37">
-        <v>2394</v>
+        <v>2399</v>
       </c>
       <c r="E62" s="37">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="F62" s="37">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3892,10 +3892,10 @@
         <v>300</v>
       </c>
       <c r="D63" s="37">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E63" s="37">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F63" s="37">
         <v>123</v>
@@ -3927,13 +3927,13 @@
         <v>123050</v>
       </c>
       <c r="D64" s="37">
-        <v>86845</v>
+        <v>88794</v>
       </c>
       <c r="E64" s="37">
-        <v>61762</v>
+        <v>62774</v>
       </c>
       <c r="F64" s="37">
-        <v>25083</v>
+        <v>26020</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3962,13 +3962,13 @@
         <v>1000</v>
       </c>
       <c r="D65" s="37">
-        <v>1763</v>
+        <v>1769</v>
       </c>
       <c r="E65" s="37">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="F65" s="37">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E66" s="37">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F66" s="37">
         <v>32</v>
@@ -4032,13 +4032,13 @@
         <v>8125</v>
       </c>
       <c r="D67" s="37">
-        <v>3108</v>
+        <v>3206</v>
       </c>
       <c r="E67" s="37">
-        <v>2653</v>
+        <v>2686</v>
       </c>
       <c r="F67" s="37">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4067,13 +4067,13 @@
         <v>300</v>
       </c>
       <c r="D68" s="37">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E68" s="37">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F68" s="37">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4105,10 +4105,10 @@
         <v>2153</v>
       </c>
       <c r="E69" s="37">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F69" s="37">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4137,10 +4137,10 @@
         <v>1400</v>
       </c>
       <c r="D70" s="37">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="E70" s="37">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F70" s="37">
         <v>610</v>
@@ -4172,13 +4172,13 @@
         <v>41800</v>
       </c>
       <c r="D71" s="37">
-        <v>25163</v>
+        <v>25199</v>
       </c>
       <c r="E71" s="37">
-        <v>19826</v>
+        <v>19851</v>
       </c>
       <c r="F71" s="37">
-        <v>5337</v>
+        <v>5348</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E72" s="37">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F72" s="37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4242,13 +4242,13 @@
         <v>194000</v>
       </c>
       <c r="D73" s="37">
-        <v>159375</v>
+        <v>161776</v>
       </c>
       <c r="E73" s="37">
-        <v>110047</v>
+        <v>110963</v>
       </c>
       <c r="F73" s="37">
-        <v>49328</v>
+        <v>50813</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4277,13 +4277,13 @@
         <v>16900</v>
       </c>
       <c r="D74" s="37">
-        <v>24090</v>
+        <v>24295</v>
       </c>
       <c r="E74" s="37">
-        <v>18185</v>
+        <v>18271</v>
       </c>
       <c r="F74" s="37">
-        <v>5905</v>
+        <v>6024</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4312,13 +4312,13 @@
         <v>3600</v>
       </c>
       <c r="D75" s="37">
-        <v>4159</v>
+        <v>4176</v>
       </c>
       <c r="E75" s="37">
-        <v>3079</v>
+        <v>3085</v>
       </c>
       <c r="F75" s="37">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4347,13 +4347,13 @@
         <v>7825</v>
       </c>
       <c r="D76" s="37">
-        <v>2103</v>
+        <v>2136</v>
       </c>
       <c r="E76" s="37">
-        <v>1775</v>
+        <v>1791</v>
       </c>
       <c r="F76" s="37">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4382,13 +4382,13 @@
         <v>10525</v>
       </c>
       <c r="D77" s="37">
-        <v>4745</v>
+        <v>4749</v>
       </c>
       <c r="E77" s="37">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="F77" s="37">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4417,13 +4417,13 @@
         <v>1600</v>
       </c>
       <c r="D78" s="37">
-        <v>3147</v>
+        <v>3282</v>
       </c>
       <c r="E78" s="37">
-        <v>2478</v>
+        <v>2577</v>
       </c>
       <c r="F78" s="37">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4487,13 +4487,13 @@
         <v>700</v>
       </c>
       <c r="D80" s="37">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E80" s="37">
         <v>824</v>
       </c>
       <c r="F80" s="37">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4522,10 +4522,10 @@
         <v>500</v>
       </c>
       <c r="D81" s="37">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E81" s="37">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F81" s="37">
         <v>127</v>
@@ -4557,13 +4557,13 @@
         <v>116900</v>
       </c>
       <c r="D82" s="37">
-        <v>138040</v>
+        <v>143474</v>
       </c>
       <c r="E82" s="37">
-        <v>98428</v>
+        <v>100220</v>
       </c>
       <c r="F82" s="37">
-        <v>39612</v>
+        <v>43254</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4592,13 +4592,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>1246</v>
+        <v>1273</v>
       </c>
       <c r="E83" s="37">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="F83" s="37">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4627,13 +4627,13 @@
         <v>1300</v>
       </c>
       <c r="D84" s="37">
-        <v>1372</v>
+        <v>1419</v>
       </c>
       <c r="E84" s="37">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="F84" s="37">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4662,10 +4662,10 @@
         <v>4650</v>
       </c>
       <c r="D85" s="37">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="E85" s="37">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F85" s="37">
         <v>802</v>
@@ -4697,13 +4697,13 @@
         <v>1600</v>
       </c>
       <c r="D86" s="37">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="E86" s="37">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="F86" s="37">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4732,13 +4732,13 @@
         <v>69200</v>
       </c>
       <c r="D87" s="37">
-        <v>64348</v>
+        <v>66611</v>
       </c>
       <c r="E87" s="37">
-        <v>43196</v>
+        <v>44069</v>
       </c>
       <c r="F87" s="37">
-        <v>21152</v>
+        <v>22542</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4767,13 +4767,13 @@
         <v>500</v>
       </c>
       <c r="D88" s="37">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E88" s="37">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F88" s="37">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4802,13 +4802,13 @@
         <v>9200</v>
       </c>
       <c r="D89" s="37">
-        <v>5366</v>
+        <v>5403</v>
       </c>
       <c r="E89" s="37">
-        <v>4131</v>
+        <v>4153</v>
       </c>
       <c r="F89" s="37">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4837,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="37">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E90" s="37">
         <v>265</v>
       </c>
       <c r="F90" s="37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G90" s="38">
         <v>1099</v>
@@ -4872,13 +4872,13 @@
         <v>400</v>
       </c>
       <c r="D91" s="37">
-        <v>1535</v>
+        <v>1591</v>
       </c>
       <c r="E91" s="37">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="F91" s="37">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4907,13 +4907,13 @@
         <v>1900</v>
       </c>
       <c r="D92" s="37">
-        <v>2648</v>
+        <v>2736</v>
       </c>
       <c r="E92" s="37">
-        <v>1796</v>
+        <v>1844</v>
       </c>
       <c r="F92" s="37">
-        <v>852</v>
+        <v>892</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4942,13 +4942,13 @@
         <v>1800</v>
       </c>
       <c r="D93" s="37">
-        <v>2620</v>
+        <v>2628</v>
       </c>
       <c r="E93" s="37">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="F93" s="37">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4977,13 +4977,13 @@
         <v>24600</v>
       </c>
       <c r="D94" s="37">
-        <v>16075</v>
+        <v>16257</v>
       </c>
       <c r="E94" s="37">
-        <v>11069</v>
+        <v>11192</v>
       </c>
       <c r="F94" s="37">
-        <v>5006</v>
+        <v>5065</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5012,13 +5012,13 @@
         <v>29375</v>
       </c>
       <c r="D95" s="37">
-        <v>15738</v>
+        <v>16942</v>
       </c>
       <c r="E95" s="37">
-        <v>11543</v>
+        <v>12589</v>
       </c>
       <c r="F95" s="37">
-        <v>4195</v>
+        <v>4353</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5047,13 +5047,13 @@
         <v>1700</v>
       </c>
       <c r="D96" s="37">
-        <v>2462</v>
+        <v>2539</v>
       </c>
       <c r="E96" s="37">
-        <v>1770</v>
+        <v>1813</v>
       </c>
       <c r="F96" s="37">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5082,13 +5082,13 @@
         <v>17425</v>
       </c>
       <c r="D97" s="37">
-        <v>17293</v>
+        <v>17507</v>
       </c>
       <c r="E97" s="37">
-        <v>12645</v>
+        <v>12802</v>
       </c>
       <c r="F97" s="37">
-        <v>4648</v>
+        <v>4705</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5117,13 +5117,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>4443</v>
+        <v>4497</v>
       </c>
       <c r="E98" s="37">
-        <v>3032</v>
+        <v>3072</v>
       </c>
       <c r="F98" s="37">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5187,13 +5187,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="E100" s="37">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F100" s="37">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5257,13 +5257,13 @@
         <v>1200</v>
       </c>
       <c r="D102" s="37">
-        <v>1256</v>
+        <v>1279</v>
       </c>
       <c r="E102" s="37">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F102" s="37">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="G102" s="38">
         <v>3190</v>
@@ -5292,13 +5292,13 @@
         <v>5900</v>
       </c>
       <c r="D103" s="37">
-        <v>7154</v>
+        <v>7191</v>
       </c>
       <c r="E103" s="37">
-        <v>5340</v>
+        <v>5359</v>
       </c>
       <c r="F103" s="37">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5327,13 +5327,13 @@
         <v>871450</v>
       </c>
       <c r="D104" s="37">
-        <v>611130</v>
+        <v>623461</v>
       </c>
       <c r="E104" s="37">
-        <v>422140</v>
+        <v>424588</v>
       </c>
       <c r="F104" s="37">
-        <v>188990</v>
+        <v>198873</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5362,13 +5362,13 @@
         <v>4900</v>
       </c>
       <c r="D105" s="37">
-        <v>4982</v>
+        <v>5087</v>
       </c>
       <c r="E105" s="37">
-        <v>3630</v>
+        <v>3712</v>
       </c>
       <c r="F105" s="37">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5397,13 +5397,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="E106" s="37">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="F106" s="37">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5435,10 +5435,10 @@
         <v>1019</v>
       </c>
       <c r="E107" s="37">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F107" s="37">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G107" s="38">
         <v>4831</v>
@@ -5467,13 +5467,13 @@
         <v>35350</v>
       </c>
       <c r="D108" s="37">
-        <v>27997</v>
+        <v>28271</v>
       </c>
       <c r="E108" s="37">
-        <v>20802</v>
+        <v>20966</v>
       </c>
       <c r="F108" s="37">
-        <v>7195</v>
+        <v>7305</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5502,10 +5502,10 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E109" s="37">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F109" s="37">
         <v>369</v>
@@ -5537,13 +5537,13 @@
         <v>5100</v>
       </c>
       <c r="D110" s="37">
-        <v>7761</v>
+        <v>8101</v>
       </c>
       <c r="E110" s="37">
-        <v>5609</v>
+        <v>5774</v>
       </c>
       <c r="F110" s="37">
-        <v>2152</v>
+        <v>2327</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5572,13 +5572,13 @@
         <v>188750</v>
       </c>
       <c r="D111" s="37">
-        <v>118362</v>
+        <v>121754</v>
       </c>
       <c r="E111" s="37">
-        <v>82280</v>
+        <v>82913</v>
       </c>
       <c r="F111" s="37">
-        <v>36082</v>
+        <v>38841</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5607,13 +5607,13 @@
         <v>2200</v>
       </c>
       <c r="D112" s="37">
-        <v>4348</v>
+        <v>4421</v>
       </c>
       <c r="E112" s="37">
-        <v>2935</v>
+        <v>2976</v>
       </c>
       <c r="F112" s="37">
-        <v>1413</v>
+        <v>1445</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5642,13 +5642,13 @@
         <v>1400</v>
       </c>
       <c r="D113" s="37">
-        <v>3338</v>
+        <v>3516</v>
       </c>
       <c r="E113" s="37">
-        <v>2532</v>
+        <v>2628</v>
       </c>
       <c r="F113" s="37">
-        <v>806</v>
+        <v>888</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5677,13 +5677,13 @@
         <v>5200</v>
       </c>
       <c r="D114" s="37">
-        <v>7439</v>
+        <v>7615</v>
       </c>
       <c r="E114" s="37">
-        <v>5894</v>
+        <v>6010</v>
       </c>
       <c r="F114" s="37">
-        <v>1545</v>
+        <v>1605</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5712,13 +5712,13 @@
         <v>3800</v>
       </c>
       <c r="D115" s="37">
-        <v>3380</v>
+        <v>3412</v>
       </c>
       <c r="E115" s="37">
-        <v>2525</v>
+        <v>2541</v>
       </c>
       <c r="F115" s="37">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5747,13 +5747,13 @@
         <v>2100</v>
       </c>
       <c r="D116" s="37">
-        <v>2247</v>
+        <v>2222</v>
       </c>
       <c r="E116" s="37">
-        <v>1430</v>
+        <v>1403</v>
       </c>
       <c r="F116" s="37">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5782,13 +5782,13 @@
         <v>3500</v>
       </c>
       <c r="D117" s="37">
-        <v>3031</v>
+        <v>3061</v>
       </c>
       <c r="E117" s="37">
-        <v>1941</v>
+        <v>1956</v>
       </c>
       <c r="F117" s="37">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5817,13 +5817,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="E118" s="37">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="F118" s="37">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5852,13 +5852,13 @@
         <v>8750</v>
       </c>
       <c r="D119" s="37">
-        <v>9978</v>
+        <v>10076</v>
       </c>
       <c r="E119" s="37">
-        <v>6481</v>
+        <v>6532</v>
       </c>
       <c r="F119" s="37">
-        <v>3497</v>
+        <v>3544</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5887,13 +5887,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2544</v>
+        <v>2552</v>
       </c>
       <c r="E120" s="37">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="F120" s="37">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E121" s="37">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F121" s="37">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5957,13 +5957,13 @@
         <v>1200</v>
       </c>
       <c r="D122" s="37">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E122" s="37">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F122" s="37">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -5992,13 +5992,13 @@
         <v>4450</v>
       </c>
       <c r="D123" s="37">
-        <v>2640</v>
+        <v>2646</v>
       </c>
       <c r="E123" s="37">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F123" s="37">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6027,13 +6027,13 @@
         <v>8800</v>
       </c>
       <c r="D124" s="37">
-        <v>4926</v>
+        <v>4953</v>
       </c>
       <c r="E124" s="37">
-        <v>4337</v>
+        <v>4359</v>
       </c>
       <c r="F124" s="37">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6062,10 +6062,10 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="E125" s="37">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F125" s="37">
         <v>53</v>
@@ -6097,13 +6097,13 @@
         <v>55150</v>
       </c>
       <c r="D126" s="37">
-        <v>24119</v>
+        <v>24637</v>
       </c>
       <c r="E126" s="37">
-        <v>18671</v>
+        <v>18957</v>
       </c>
       <c r="F126" s="37">
-        <v>5448</v>
+        <v>5680</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6132,13 +6132,13 @@
         <v>400</v>
       </c>
       <c r="D127" s="37">
-        <v>1421</v>
+        <v>1447</v>
       </c>
       <c r="E127" s="37">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="F127" s="37">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6167,13 +6167,13 @@
         <v>8925</v>
       </c>
       <c r="D128" s="37">
-        <v>8789</v>
+        <v>8872</v>
       </c>
       <c r="E128" s="37">
-        <v>6361</v>
+        <v>6393</v>
       </c>
       <c r="F128" s="37">
-        <v>2428</v>
+        <v>2479</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6202,13 +6202,13 @@
         <v>11600</v>
       </c>
       <c r="D129" s="37">
-        <v>16022</v>
+        <v>16216</v>
       </c>
       <c r="E129" s="37">
-        <v>10869</v>
+        <v>10987</v>
       </c>
       <c r="F129" s="37">
-        <v>5153</v>
+        <v>5229</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6272,13 +6272,13 @@
         <v>2500</v>
       </c>
       <c r="D131" s="37">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="E131" s="37">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="F131" s="37">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6307,13 +6307,13 @@
         <v>6750</v>
       </c>
       <c r="D132" s="37">
-        <v>14308</v>
+        <v>14630</v>
       </c>
       <c r="E132" s="37">
-        <v>9785</v>
+        <v>9960</v>
       </c>
       <c r="F132" s="37">
-        <v>4523</v>
+        <v>4670</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6342,13 +6342,13 @@
         <v>3000</v>
       </c>
       <c r="D133" s="37">
-        <v>6427</v>
+        <v>6568</v>
       </c>
       <c r="E133" s="37">
-        <v>4636</v>
+        <v>4752</v>
       </c>
       <c r="F133" s="37">
-        <v>1791</v>
+        <v>1816</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6447,13 +6447,13 @@
         <v>5400</v>
       </c>
       <c r="D136" s="37">
-        <v>6079</v>
+        <v>6094</v>
       </c>
       <c r="E136" s="37">
-        <v>4640</v>
+        <v>4653</v>
       </c>
       <c r="F136" s="37">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6482,13 +6482,13 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E137" s="37">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F137" s="37">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G137" s="38">
         <v>3651</v>
@@ -6517,13 +6517,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="37">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E138" s="37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F138" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G138" s="38">
         <v>205</v>
@@ -6587,13 +6587,13 @@
         <v>14325</v>
       </c>
       <c r="D140" s="37">
-        <v>7934</v>
+        <v>7966</v>
       </c>
       <c r="E140" s="37">
-        <v>6940</v>
+        <v>6957</v>
       </c>
       <c r="F140" s="37">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6622,13 +6622,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E141" s="37">
         <v>671</v>
       </c>
       <c r="F141" s="37">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6657,10 +6657,10 @@
         <v>7325</v>
       </c>
       <c r="D142" s="37">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E142" s="37">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="F142" s="37">
         <v>799</v>
@@ -6692,13 +6692,13 @@
         <v>8000</v>
       </c>
       <c r="D143" s="37">
-        <v>6962</v>
+        <v>7046</v>
       </c>
       <c r="E143" s="37">
-        <v>5373</v>
+        <v>5422</v>
       </c>
       <c r="F143" s="37">
-        <v>1589</v>
+        <v>1624</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6727,13 +6727,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>2488</v>
+        <v>2596</v>
       </c>
       <c r="E144" s="37">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="F144" s="37">
-        <v>804</v>
+        <v>903</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6762,13 +6762,13 @@
         <v>900</v>
       </c>
       <c r="D145" s="37">
-        <v>1775</v>
+        <v>1863</v>
       </c>
       <c r="E145" s="37">
-        <v>1374</v>
+        <v>1442</v>
       </c>
       <c r="F145" s="37">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6797,13 +6797,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>2985</v>
+        <v>3004</v>
       </c>
       <c r="E146" s="37">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="F146" s="37">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6832,13 +6832,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1519</v>
+        <v>1551</v>
       </c>
       <c r="E147" s="37">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="F147" s="37">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6867,13 +6867,13 @@
         <v>1000</v>
       </c>
       <c r="D148" s="37">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="E148" s="37">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="F148" s="37">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6902,13 +6902,13 @@
         <v>11125</v>
       </c>
       <c r="D149" s="37">
-        <v>5868</v>
+        <v>5973</v>
       </c>
       <c r="E149" s="37">
-        <v>3913</v>
+        <v>3938</v>
       </c>
       <c r="F149" s="37">
-        <v>1955</v>
+        <v>2035</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6937,13 +6937,13 @@
         <v>2600</v>
       </c>
       <c r="D150" s="37">
-        <v>1950</v>
+        <v>2053</v>
       </c>
       <c r="E150" s="37">
-        <v>1314</v>
+        <v>1370</v>
       </c>
       <c r="F150" s="37">
-        <v>636</v>
+        <v>683</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6972,13 +6972,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="E151" s="37">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F151" s="37">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7007,13 +7007,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="E152" s="37">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F152" s="37">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7042,13 +7042,13 @@
         <v>1400</v>
       </c>
       <c r="D153" s="37">
-        <v>2710</v>
+        <v>2991</v>
       </c>
       <c r="E153" s="37">
-        <v>2223</v>
+        <v>2482</v>
       </c>
       <c r="F153" s="37">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7077,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="37">
+        <v>28</v>
+      </c>
+      <c r="E154" s="37">
         <v>27</v>
-      </c>
-      <c r="E154" s="37">
-        <v>26</v>
       </c>
       <c r="F154" s="37">
         <v>1</v>
@@ -7112,13 +7112,13 @@
         <v>105500</v>
       </c>
       <c r="D155" s="37">
-        <v>74772</v>
+        <v>76367</v>
       </c>
       <c r="E155" s="37">
-        <v>52276</v>
+        <v>53118</v>
       </c>
       <c r="F155" s="37">
-        <v>22496</v>
+        <v>23249</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7147,13 +7147,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="E156" s="37">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="F156" s="37">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7182,13 +7182,13 @@
         <v>1000</v>
       </c>
       <c r="D157" s="37">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="E157" s="37">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F157" s="37">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7217,13 +7217,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="E158" s="37">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F158" s="37">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7252,13 +7252,13 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E159" s="37">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F159" s="37">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G159" s="38">
         <v>4136</v>
@@ -7287,13 +7287,13 @@
         <v>500</v>
       </c>
       <c r="D160" s="37">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E160" s="37">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F160" s="37">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7322,13 +7322,13 @@
         <v>3000</v>
       </c>
       <c r="D161" s="37">
-        <v>2911</v>
+        <v>2957</v>
       </c>
       <c r="E161" s="37">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="F161" s="37">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7357,13 +7357,13 @@
         <v>11000</v>
       </c>
       <c r="D162" s="37">
-        <v>5256</v>
+        <v>5269</v>
       </c>
       <c r="E162" s="37">
-        <v>4202</v>
+        <v>4213</v>
       </c>
       <c r="F162" s="37">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7392,13 +7392,13 @@
         <v>1300</v>
       </c>
       <c r="D163" s="37">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="E163" s="37">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="F163" s="37">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7427,13 +7427,13 @@
         <v>44050</v>
       </c>
       <c r="D164" s="37">
-        <v>32457</v>
+        <v>32773</v>
       </c>
       <c r="E164" s="37">
-        <v>23803</v>
+        <v>23976</v>
       </c>
       <c r="F164" s="37">
-        <v>8654</v>
+        <v>8797</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7497,13 +7497,13 @@
         <v>2700</v>
       </c>
       <c r="D166" s="37">
-        <v>6297</v>
+        <v>6357</v>
       </c>
       <c r="E166" s="37">
-        <v>4570</v>
+        <v>4609</v>
       </c>
       <c r="F166" s="37">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7567,13 +7567,13 @@
         <v>42325</v>
       </c>
       <c r="D168" s="37">
-        <v>27543</v>
+        <v>27655</v>
       </c>
       <c r="E168" s="37">
-        <v>22585</v>
+        <v>22636</v>
       </c>
       <c r="F168" s="37">
-        <v>4958</v>
+        <v>5019</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7602,13 +7602,13 @@
         <v>2900</v>
       </c>
       <c r="D169" s="37">
-        <v>3252</v>
+        <v>3266</v>
       </c>
       <c r="E169" s="37">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="F169" s="37">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7637,13 +7637,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E170" s="37">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F170" s="37">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7672,13 +7672,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E171" s="37">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F171" s="37">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7707,13 +7707,13 @@
         <v>2550</v>
       </c>
       <c r="D172" s="37">
-        <v>3189</v>
+        <v>3260</v>
       </c>
       <c r="E172" s="37">
-        <v>2296</v>
+        <v>2328</v>
       </c>
       <c r="F172" s="37">
-        <v>893</v>
+        <v>932</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7742,13 +7742,13 @@
         <v>84900</v>
       </c>
       <c r="D173" s="37">
-        <v>67204</v>
+        <v>69591</v>
       </c>
       <c r="E173" s="37">
-        <v>46564</v>
+        <v>47592</v>
       </c>
       <c r="F173" s="37">
-        <v>20640</v>
+        <v>21999</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7777,13 +7777,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="E174" s="37">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="F174" s="37">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7812,10 +7812,10 @@
         <v>700</v>
       </c>
       <c r="D175" s="37">
-        <v>981</v>
+        <v>1020</v>
       </c>
       <c r="E175" s="37">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="F175" s="37">
         <v>316</v>
@@ -7882,13 +7882,13 @@
         <v>10500</v>
       </c>
       <c r="D177" s="37">
-        <v>10176</v>
+        <v>10215</v>
       </c>
       <c r="E177" s="37">
-        <v>6486</v>
+        <v>6515</v>
       </c>
       <c r="F177" s="37">
-        <v>3690</v>
+        <v>3700</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7917,13 +7917,13 @@
         <v>9200</v>
       </c>
       <c r="D178" s="37">
-        <v>7766</v>
+        <v>7856</v>
       </c>
       <c r="E178" s="37">
-        <v>6576</v>
+        <v>6610</v>
       </c>
       <c r="F178" s="37">
-        <v>1190</v>
+        <v>1246</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7952,10 +7952,10 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="E179" s="37">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F179" s="37">
         <v>217</v>
@@ -7987,13 +7987,13 @@
         <v>3200</v>
       </c>
       <c r="D180" s="37">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="E180" s="37">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="F180" s="37">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8022,13 +8022,13 @@
         <v>85175</v>
       </c>
       <c r="D181" s="37">
-        <v>45839</v>
+        <v>46465</v>
       </c>
       <c r="E181" s="37">
-        <v>29396</v>
+        <v>29649</v>
       </c>
       <c r="F181" s="37">
-        <v>16443</v>
+        <v>16816</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8057,13 +8057,13 @@
         <v>1500</v>
       </c>
       <c r="D182" s="37">
-        <v>1244</v>
+        <v>1264</v>
       </c>
       <c r="E182" s="37">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="F182" s="37">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G182" s="38">
         <v>7106</v>
@@ -8127,13 +8127,13 @@
         <v>2000</v>
       </c>
       <c r="D184" s="37">
-        <v>6244</v>
+        <v>6347</v>
       </c>
       <c r="E184" s="37">
-        <v>5151</v>
+        <v>5212</v>
       </c>
       <c r="F184" s="37">
-        <v>1093</v>
+        <v>1135</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8162,13 +8162,13 @@
         <v>2200</v>
       </c>
       <c r="D185" s="37">
-        <v>2178</v>
+        <v>2197</v>
       </c>
       <c r="E185" s="37">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="F185" s="37">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8197,13 +8197,13 @@
         <v>1700</v>
       </c>
       <c r="D186" s="37">
-        <v>1830</v>
+        <v>1847</v>
       </c>
       <c r="E186" s="37">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="F186" s="37">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8232,13 +8232,13 @@
         <v>19250</v>
       </c>
       <c r="D187" s="37">
-        <v>18045</v>
+        <v>18450</v>
       </c>
       <c r="E187" s="37">
-        <v>12654</v>
+        <v>12851</v>
       </c>
       <c r="F187" s="37">
-        <v>5391</v>
+        <v>5599</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8267,13 +8267,13 @@
         <v>900</v>
       </c>
       <c r="D188" s="37">
-        <v>1898</v>
+        <v>1965</v>
       </c>
       <c r="E188" s="37">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="F188" s="37">
-        <v>557</v>
+        <v>612</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8302,13 +8302,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>2934</v>
+        <v>2973</v>
       </c>
       <c r="E189" s="37">
-        <v>2394</v>
+        <v>2408</v>
       </c>
       <c r="F189" s="37">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8337,13 +8337,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>6180</v>
+        <v>6451</v>
       </c>
       <c r="E190" s="37">
-        <v>4689</v>
+        <v>4818</v>
       </c>
       <c r="F190" s="37">
-        <v>1491</v>
+        <v>1633</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8372,13 +8372,13 @@
         <v>89325</v>
       </c>
       <c r="D191" s="37">
-        <v>27007</v>
+        <v>27134</v>
       </c>
       <c r="E191" s="37">
-        <v>17306</v>
+        <v>17371</v>
       </c>
       <c r="F191" s="37">
-        <v>9701</v>
+        <v>9763</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8407,10 +8407,10 @@
         <v>1500</v>
       </c>
       <c r="D192" s="37">
-        <v>1485</v>
+        <v>1771</v>
       </c>
       <c r="E192" s="37">
-        <v>1267</v>
+        <v>1553</v>
       </c>
       <c r="F192" s="37">
         <v>218</v>
@@ -8442,13 +8442,13 @@
         <v>500</v>
       </c>
       <c r="D193" s="37">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="E193" s="37">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="F193" s="37">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8477,13 +8477,13 @@
         <v>6200</v>
       </c>
       <c r="D194" s="37">
-        <v>40838</v>
+        <v>40953</v>
       </c>
       <c r="E194" s="37">
-        <v>25597</v>
+        <v>25641</v>
       </c>
       <c r="F194" s="37">
-        <v>15241</v>
+        <v>15312</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8512,13 +8512,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E195" s="37">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F195" s="37">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8547,13 +8547,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E196" s="37">
         <v>577</v>
       </c>
       <c r="F196" s="37">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8582,13 +8582,13 @@
         <v>900</v>
       </c>
       <c r="D197" s="37">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="E197" s="37">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F197" s="37">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8617,13 +8617,13 @@
         <v>7725</v>
       </c>
       <c r="D198" s="37">
-        <v>4485</v>
+        <v>4508</v>
       </c>
       <c r="E198" s="37">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="F198" s="37">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8652,10 +8652,10 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E199" s="37">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F199" s="37">
         <v>422</v>
@@ -8722,13 +8722,13 @@
         <v>1200</v>
       </c>
       <c r="D201" s="37">
-        <v>1791</v>
+        <v>1826</v>
       </c>
       <c r="E201" s="37">
-        <v>1337</v>
+        <v>1362</v>
       </c>
       <c r="F201" s="37">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8757,13 +8757,13 @@
         <v>8175</v>
       </c>
       <c r="D202" s="37">
-        <v>15189</v>
+        <v>15472</v>
       </c>
       <c r="E202" s="37">
-        <v>11079</v>
+        <v>11212</v>
       </c>
       <c r="F202" s="37">
-        <v>4110</v>
+        <v>4260</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8792,13 +8792,13 @@
         <v>1800</v>
       </c>
       <c r="D203" s="37">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="E203" s="37">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F203" s="37">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8827,13 +8827,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>4289</v>
+        <v>4469</v>
       </c>
       <c r="E204" s="37">
-        <v>3177</v>
+        <v>3313</v>
       </c>
       <c r="F204" s="37">
-        <v>1112</v>
+        <v>1156</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8862,13 +8862,13 @@
         <v>1600</v>
       </c>
       <c r="D205" s="37">
-        <v>1731</v>
+        <v>1755</v>
       </c>
       <c r="E205" s="37">
-        <v>1264</v>
+        <v>1284</v>
       </c>
       <c r="F205" s="37">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G205" s="38">
         <v>8871</v>
@@ -8897,13 +8897,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>1224</v>
+        <v>1237</v>
       </c>
       <c r="E206" s="37">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="F206" s="37">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8932,13 +8932,13 @@
         <v>1800</v>
       </c>
       <c r="D207" s="37">
-        <v>2447</v>
+        <v>2512</v>
       </c>
       <c r="E207" s="37">
-        <v>1745</v>
+        <v>1782</v>
       </c>
       <c r="F207" s="37">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8967,13 +8967,13 @@
         <v>4200</v>
       </c>
       <c r="D208" s="37">
-        <v>7927</v>
+        <v>8029</v>
       </c>
       <c r="E208" s="37">
-        <v>5798</v>
+        <v>5851</v>
       </c>
       <c r="F208" s="37">
-        <v>2129</v>
+        <v>2178</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9002,13 +9002,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E209" s="37">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F209" s="37">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9037,13 +9037,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="E210" s="37">
-        <v>207</v>
+        <v>387</v>
       </c>
       <c r="F210" s="37">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9072,13 +9072,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>1822</v>
+        <v>1982</v>
       </c>
       <c r="E211" s="37">
-        <v>1299</v>
+        <v>1381</v>
       </c>
       <c r="F211" s="37">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9107,10 +9107,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E212" s="37">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F212" s="37">
         <v>57</v>
@@ -9142,13 +9142,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="E213" s="37">
-        <v>1078</v>
+        <v>1095</v>
       </c>
       <c r="F213" s="37">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9177,10 +9177,10 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E214" s="37">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F214" s="37">
         <v>141</v>
@@ -9212,13 +9212,13 @@
         <v>74400</v>
       </c>
       <c r="D215" s="37">
-        <v>37623</v>
+        <v>38461</v>
       </c>
       <c r="E215" s="37">
-        <v>25749</v>
+        <v>25907</v>
       </c>
       <c r="F215" s="37">
-        <v>11874</v>
+        <v>12554</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9247,13 +9247,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="E216" s="37">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F216" s="37">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9282,13 +9282,13 @@
         <v>8000</v>
       </c>
       <c r="D217" s="37">
-        <v>7794</v>
+        <v>7868</v>
       </c>
       <c r="E217" s="37">
-        <v>5766</v>
+        <v>5792</v>
       </c>
       <c r="F217" s="37">
-        <v>2028</v>
+        <v>2076</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9317,13 +9317,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="E218" s="37">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="F218" s="37">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9387,10 +9387,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E220" s="37">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F220" s="37">
         <v>73</v>
@@ -9457,13 +9457,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="E222" s="37">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F222" s="37">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9492,13 +9492,13 @@
         <v>440250</v>
       </c>
       <c r="D223" s="37">
-        <v>254764</v>
+        <v>261829</v>
       </c>
       <c r="E223" s="37">
-        <v>167028</v>
+        <v>171211</v>
       </c>
       <c r="F223" s="37">
-        <v>87736</v>
+        <v>90618</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9527,13 +9527,13 @@
         <v>30525</v>
       </c>
       <c r="D224" s="37">
-        <v>23760</v>
+        <v>23886</v>
       </c>
       <c r="E224" s="37">
-        <v>17569</v>
+        <v>17664</v>
       </c>
       <c r="F224" s="37">
-        <v>6191</v>
+        <v>6222</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9562,13 +9562,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E225" s="37">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F225" s="37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G225" s="38">
         <v>639</v>
@@ -9597,13 +9597,13 @@
         <v>3650</v>
       </c>
       <c r="D226" s="37">
-        <v>2792</v>
+        <v>2801</v>
       </c>
       <c r="E226" s="37">
-        <v>1935</v>
+        <v>1941</v>
       </c>
       <c r="F226" s="37">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G226" s="38">
         <v>9307</v>
@@ -9667,13 +9667,13 @@
         <v>5200</v>
       </c>
       <c r="D228" s="37">
-        <v>2838</v>
+        <v>2933</v>
       </c>
       <c r="E228" s="37">
-        <v>1891</v>
+        <v>1962</v>
       </c>
       <c r="F228" s="37">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9702,13 +9702,13 @@
         <v>28400</v>
       </c>
       <c r="D229" s="37">
-        <v>23164</v>
+        <v>23416</v>
       </c>
       <c r="E229" s="37">
-        <v>15509</v>
+        <v>15646</v>
       </c>
       <c r="F229" s="37">
-        <v>7655</v>
+        <v>7770</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9737,13 +9737,13 @@
         <v>242000</v>
       </c>
       <c r="D230" s="37">
-        <v>153843</v>
+        <v>155650</v>
       </c>
       <c r="E230" s="37">
-        <v>107189</v>
+        <v>108132</v>
       </c>
       <c r="F230" s="37">
-        <v>46654</v>
+        <v>47518</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9772,13 +9772,13 @@
         <v>2850</v>
       </c>
       <c r="D231" s="37">
-        <v>2107</v>
+        <v>2127</v>
       </c>
       <c r="E231" s="37">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="F231" s="37">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9807,13 +9807,13 @@
         <v>2900</v>
       </c>
       <c r="D232" s="37">
-        <v>3135</v>
+        <v>3167</v>
       </c>
       <c r="E232" s="37">
-        <v>2241</v>
+        <v>2259</v>
       </c>
       <c r="F232" s="37">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9842,13 +9842,13 @@
         <v>1600</v>
       </c>
       <c r="D233" s="37">
-        <v>3165</v>
+        <v>3331</v>
       </c>
       <c r="E233" s="37">
-        <v>2304</v>
+        <v>2429</v>
       </c>
       <c r="F233" s="37">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9877,13 +9877,13 @@
         <v>500</v>
       </c>
       <c r="D234" s="37">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="E234" s="37">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F234" s="37">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G234" s="38">
         <v>2730</v>
@@ -9912,13 +9912,13 @@
         <v>9325</v>
       </c>
       <c r="D235" s="37">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="E235" s="37">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="F235" s="37">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9947,13 +9947,13 @@
         <v>7200</v>
       </c>
       <c r="D236" s="37">
-        <v>5753</v>
+        <v>5762</v>
       </c>
       <c r="E236" s="37">
-        <v>4514</v>
+        <v>4521</v>
       </c>
       <c r="F236" s="37">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9982,13 +9982,13 @@
         <v>3000</v>
       </c>
       <c r="D237" s="37">
-        <v>5539</v>
+        <v>5604</v>
       </c>
       <c r="E237" s="37">
-        <v>3833</v>
+        <v>3852</v>
       </c>
       <c r="F237" s="37">
-        <v>1706</v>
+        <v>1752</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10017,13 +10017,13 @@
         <v>17850</v>
       </c>
       <c r="D238" s="37">
-        <v>14252</v>
+        <v>14317</v>
       </c>
       <c r="E238" s="37">
-        <v>10395</v>
+        <v>10425</v>
       </c>
       <c r="F238" s="37">
-        <v>3857</v>
+        <v>3892</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10052,13 +10052,13 @@
         <v>5900</v>
       </c>
       <c r="D239" s="37">
-        <v>5515</v>
+        <v>5597</v>
       </c>
       <c r="E239" s="37">
-        <v>3960</v>
+        <v>4013</v>
       </c>
       <c r="F239" s="37">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10087,13 +10087,13 @@
         <v>3400</v>
       </c>
       <c r="D240" s="37">
-        <v>3924</v>
+        <v>4089</v>
       </c>
       <c r="E240" s="37">
-        <v>2897</v>
+        <v>2990</v>
       </c>
       <c r="F240" s="37">
-        <v>1027</v>
+        <v>1099</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10122,13 +10122,13 @@
         <v>700</v>
       </c>
       <c r="D241" s="37">
-        <v>1494</v>
+        <v>1606</v>
       </c>
       <c r="E241" s="37">
-        <v>1180</v>
+        <v>1285</v>
       </c>
       <c r="F241" s="37">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10157,13 +10157,13 @@
         <v>19000</v>
       </c>
       <c r="D242" s="37">
-        <v>5866</v>
+        <v>6128</v>
       </c>
       <c r="E242" s="37">
-        <v>4674</v>
+        <v>4908</v>
       </c>
       <c r="F242" s="37">
-        <v>1192</v>
+        <v>1220</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10192,13 +10192,13 @@
         <v>52100</v>
       </c>
       <c r="D243" s="37">
-        <v>40607</v>
+        <v>41026</v>
       </c>
       <c r="E243" s="37">
-        <v>29862</v>
+        <v>30061</v>
       </c>
       <c r="F243" s="37">
-        <v>10745</v>
+        <v>10965</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10227,13 +10227,13 @@
         <v>3800</v>
       </c>
       <c r="D244" s="37">
-        <v>3848</v>
+        <v>3998</v>
       </c>
       <c r="E244" s="37">
-        <v>2668</v>
+        <v>2742</v>
       </c>
       <c r="F244" s="37">
-        <v>1180</v>
+        <v>1256</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10262,13 +10262,13 @@
         <v>1000</v>
       </c>
       <c r="D245" s="37">
-        <v>998</v>
+        <v>1033</v>
       </c>
       <c r="E245" s="37">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="F245" s="37">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10297,13 +10297,13 @@
         <v>31350</v>
       </c>
       <c r="D246" s="37">
-        <v>25608</v>
+        <v>25511</v>
       </c>
       <c r="E246" s="37">
-        <v>16934</v>
+        <v>16958</v>
       </c>
       <c r="F246" s="37">
-        <v>8674</v>
+        <v>8553</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10332,13 +10332,13 @@
         <v>5800</v>
       </c>
       <c r="D247" s="37">
-        <v>3667</v>
+        <v>3658</v>
       </c>
       <c r="E247" s="37">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="F247" s="37">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10367,13 +10367,13 @@
         <v>900</v>
       </c>
       <c r="D248" s="37">
-        <v>2458</v>
+        <v>2516</v>
       </c>
       <c r="E248" s="37">
-        <v>1847</v>
+        <v>1881</v>
       </c>
       <c r="F248" s="37">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10402,13 +10402,13 @@
         <v>82850</v>
       </c>
       <c r="D249" s="37">
-        <v>64496</v>
+        <v>65140</v>
       </c>
       <c r="E249" s="37">
-        <v>45647</v>
+        <v>46014</v>
       </c>
       <c r="F249" s="37">
-        <v>18849</v>
+        <v>19126</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10437,13 +10437,13 @@
         <v>4500</v>
       </c>
       <c r="D250" s="37">
-        <v>6453</v>
+        <v>6476</v>
       </c>
       <c r="E250" s="37">
-        <v>4162</v>
+        <v>4214</v>
       </c>
       <c r="F250" s="37">
-        <v>2291</v>
+        <v>2262</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10472,10 +10472,10 @@
         <v>500</v>
       </c>
       <c r="D251" s="37">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E251" s="37">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F251" s="37">
         <v>231</v>
@@ -10507,13 +10507,13 @@
         <v>7950</v>
       </c>
       <c r="D252" s="37">
-        <v>7795</v>
+        <v>7828</v>
       </c>
       <c r="E252" s="37">
-        <v>4635</v>
+        <v>4653</v>
       </c>
       <c r="F252" s="37">
-        <v>3160</v>
+        <v>3175</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10542,13 +10542,13 @@
         <v>2500</v>
       </c>
       <c r="D253" s="37">
-        <v>5556</v>
+        <v>5682</v>
       </c>
       <c r="E253" s="37">
-        <v>4051</v>
+        <v>4094</v>
       </c>
       <c r="F253" s="37">
-        <v>1505</v>
+        <v>1588</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10577,13 +10577,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1256</v>
+        <v>1286</v>
       </c>
       <c r="E254" s="37">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="F254" s="37">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10612,13 +10612,13 @@
         <v>3200</v>
       </c>
       <c r="D255" s="37">
-        <v>2724</v>
+        <v>2806</v>
       </c>
       <c r="E255" s="37">
-        <v>1872</v>
+        <v>1952</v>
       </c>
       <c r="F255" s="37">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10647,13 +10647,13 @@
         <v>1100</v>
       </c>
       <c r="D256" s="37">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="E256" s="37">
         <v>1372</v>
       </c>
       <c r="F256" s="37">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10682,13 +10682,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2702</v>
+        <v>2731</v>
       </c>
       <c r="E257" s="37">
-        <v>2352</v>
+        <v>2369</v>
       </c>
       <c r="F257" s="37">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10717,13 +10717,13 @@
         <v>285</v>
       </c>
       <c r="D258" s="41">
-        <v>314720</v>
+        <v>297512</v>
       </c>
       <c r="E258" s="41">
-        <v>255176</v>
+        <v>244926</v>
       </c>
       <c r="F258" s="41">
-        <v>59544</v>
+        <v>52586</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10797,13 +10797,13 @@
         <v>292</v>
       </c>
       <c r="D2" s="37">
-        <v>58504</v>
+        <v>59203</v>
       </c>
       <c r="E2" s="37">
-        <v>37114</v>
+        <v>37579</v>
       </c>
       <c r="F2" s="37">
-        <v>21390</v>
+        <v>21624</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -10817,13 +10817,13 @@
         <v>293</v>
       </c>
       <c r="D3" s="37">
-        <v>42587</v>
+        <v>43035</v>
       </c>
       <c r="E3" s="37">
-        <v>27883</v>
+        <v>28157</v>
       </c>
       <c r="F3" s="37">
-        <v>14704</v>
+        <v>14878</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -10837,13 +10837,13 @@
         <v>291</v>
       </c>
       <c r="D4" s="37">
-        <v>145106</v>
+        <v>147704</v>
       </c>
       <c r="E4" s="37">
-        <v>100275</v>
+        <v>101406</v>
       </c>
       <c r="F4" s="37">
-        <v>44831</v>
+        <v>46298</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -10857,13 +10857,13 @@
         <v>295</v>
       </c>
       <c r="D5" s="37">
-        <v>236907</v>
+        <v>238878</v>
       </c>
       <c r="E5" s="37">
-        <v>151879</v>
+        <v>153186</v>
       </c>
       <c r="F5" s="37">
-        <v>85028</v>
+        <v>85692</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -10877,13 +10877,13 @@
         <v>294</v>
       </c>
       <c r="D6" s="37">
-        <v>79129</v>
+        <v>79773</v>
       </c>
       <c r="E6" s="37">
-        <v>53326</v>
+        <v>53717</v>
       </c>
       <c r="F6" s="37">
-        <v>25803</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -10897,13 +10897,13 @@
         <v>280</v>
       </c>
       <c r="D7" s="37">
-        <v>320735</v>
+        <v>321597</v>
       </c>
       <c r="E7" s="37">
-        <v>209482</v>
+        <v>209579</v>
       </c>
       <c r="F7" s="37">
-        <v>111253</v>
+        <v>112018</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10918,13 +10918,13 @@
         <v>292</v>
       </c>
       <c r="D8" s="37">
-        <v>29280</v>
+        <v>29760</v>
       </c>
       <c r="E8" s="37">
-        <v>19915</v>
+        <v>20202</v>
       </c>
       <c r="F8" s="37">
-        <v>9365</v>
+        <v>9558</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10939,13 +10939,13 @@
         <v>293</v>
       </c>
       <c r="D9" s="37">
-        <v>37120</v>
+        <v>37666</v>
       </c>
       <c r="E9" s="37">
-        <v>25910</v>
+        <v>26257</v>
       </c>
       <c r="F9" s="37">
-        <v>11210</v>
+        <v>11409</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10960,13 +10960,13 @@
         <v>291</v>
       </c>
       <c r="D10" s="37">
-        <v>84205</v>
+        <v>85702</v>
       </c>
       <c r="E10" s="37">
-        <v>62613</v>
+        <v>63444</v>
       </c>
       <c r="F10" s="37">
-        <v>21592</v>
+        <v>22258</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10981,13 +10981,13 @@
         <v>295</v>
       </c>
       <c r="D11" s="37">
-        <v>174756</v>
+        <v>176836</v>
       </c>
       <c r="E11" s="37">
-        <v>122361</v>
+        <v>123791</v>
       </c>
       <c r="F11" s="37">
-        <v>52395</v>
+        <v>53045</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -11002,13 +11002,13 @@
         <v>294</v>
       </c>
       <c r="D12" s="37">
-        <v>50642</v>
+        <v>51095</v>
       </c>
       <c r="E12" s="37">
-        <v>35682</v>
+        <v>35944</v>
       </c>
       <c r="F12" s="37">
-        <v>14960</v>
+        <v>15151</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11023,13 +11023,13 @@
         <v>280</v>
       </c>
       <c r="D13" s="37">
-        <v>207347</v>
+        <v>208085</v>
       </c>
       <c r="E13" s="37">
-        <v>143299</v>
+        <v>143367</v>
       </c>
       <c r="F13" s="37">
-        <v>64048</v>
+        <v>64718</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11044,13 +11044,13 @@
         <v>292</v>
       </c>
       <c r="D14" s="37">
-        <v>32878</v>
+        <v>33645</v>
       </c>
       <c r="E14" s="37">
-        <v>24395</v>
+        <v>24712</v>
       </c>
       <c r="F14" s="37">
-        <v>8483</v>
+        <v>8933</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11065,13 +11065,13 @@
         <v>293</v>
       </c>
       <c r="D15" s="37">
-        <v>37655</v>
+        <v>38783</v>
       </c>
       <c r="E15" s="37">
-        <v>29790</v>
+        <v>30142</v>
       </c>
       <c r="F15" s="37">
-        <v>7865</v>
+        <v>8641</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11086,13 +11086,13 @@
         <v>291</v>
       </c>
       <c r="D16" s="37">
-        <v>77884</v>
+        <v>80438</v>
       </c>
       <c r="E16" s="37">
-        <v>61265</v>
+        <v>62485</v>
       </c>
       <c r="F16" s="37">
-        <v>16619</v>
+        <v>17953</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11107,13 +11107,13 @@
         <v>295</v>
       </c>
       <c r="D17" s="37">
-        <v>303199</v>
+        <v>310616</v>
       </c>
       <c r="E17" s="37">
-        <v>230356</v>
+        <v>232740</v>
       </c>
       <c r="F17" s="37">
-        <v>72843</v>
+        <v>77876</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11128,13 +11128,13 @@
         <v>294</v>
       </c>
       <c r="D18" s="37">
-        <v>57106</v>
+        <v>59063</v>
       </c>
       <c r="E18" s="37">
-        <v>42191</v>
+        <v>42730</v>
       </c>
       <c r="F18" s="37">
-        <v>14915</v>
+        <v>16333</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11149,13 +11149,13 @@
         <v>280</v>
       </c>
       <c r="D19" s="37">
-        <v>227167</v>
+        <v>228049</v>
       </c>
       <c r="E19" s="37">
-        <v>168972</v>
+        <v>168996</v>
       </c>
       <c r="F19" s="37">
-        <v>58195</v>
+        <v>59053</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11170,13 +11170,13 @@
         <v>292</v>
       </c>
       <c r="D20" s="37">
-        <v>6982</v>
+        <v>7133</v>
       </c>
       <c r="E20" s="37">
-        <v>5108</v>
+        <v>5169</v>
       </c>
       <c r="F20" s="37">
-        <v>1874</v>
+        <v>1964</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11191,13 +11191,13 @@
         <v>293</v>
       </c>
       <c r="D21" s="37">
-        <v>8218</v>
+        <v>8474</v>
       </c>
       <c r="E21" s="37">
-        <v>6477</v>
+        <v>6546</v>
       </c>
       <c r="F21" s="37">
-        <v>1741</v>
+        <v>1928</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11212,13 +11212,13 @@
         <v>291</v>
       </c>
       <c r="D22" s="37">
-        <v>19248</v>
+        <v>19825</v>
       </c>
       <c r="E22" s="37">
-        <v>15336</v>
+        <v>15633</v>
       </c>
       <c r="F22" s="37">
-        <v>3912</v>
+        <v>4192</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11233,13 +11233,13 @@
         <v>295</v>
       </c>
       <c r="D23" s="37">
-        <v>90865</v>
+        <v>92474</v>
       </c>
       <c r="E23" s="37">
-        <v>67553</v>
+        <v>68112</v>
       </c>
       <c r="F23" s="37">
-        <v>23312</v>
+        <v>24362</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11254,13 +11254,13 @@
         <v>294</v>
       </c>
       <c r="D24" s="37">
-        <v>50737</v>
+        <v>51100</v>
       </c>
       <c r="E24" s="37">
-        <v>35151</v>
+        <v>35265</v>
       </c>
       <c r="F24" s="37">
-        <v>15586</v>
+        <v>15835</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11275,13 +11275,13 @@
         <v>280</v>
       </c>
       <c r="D25" s="37">
-        <v>81440</v>
+        <v>81688</v>
       </c>
       <c r="E25" s="37">
-        <v>60099</v>
+        <v>60123</v>
       </c>
       <c r="F25" s="37">
-        <v>21341</v>
+        <v>21565</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11338,10 +11338,10 @@
         <v>291</v>
       </c>
       <c r="D28" s="37">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E28" s="37">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F28" s="37">
         <v>14</v>
@@ -11359,13 +11359,13 @@
         <v>295</v>
       </c>
       <c r="D29" s="37">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E29" s="37">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11401,10 +11401,10 @@
         <v>280</v>
       </c>
       <c r="D31" s="37">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E31" s="37">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F31" s="37">
         <v>94</v>
@@ -11422,13 +11422,13 @@
         <v>292</v>
       </c>
       <c r="D32" s="37">
-        <v>39758</v>
+        <v>40305</v>
       </c>
       <c r="E32" s="37">
-        <v>25866</v>
+        <v>26247</v>
       </c>
       <c r="F32" s="37">
-        <v>13892</v>
+        <v>14058</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11443,13 +11443,13 @@
         <v>293</v>
       </c>
       <c r="D33" s="37">
-        <v>19490</v>
+        <v>19774</v>
       </c>
       <c r="E33" s="37">
-        <v>13148</v>
+        <v>13337</v>
       </c>
       <c r="F33" s="37">
-        <v>6342</v>
+        <v>6437</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11464,13 +11464,13 @@
         <v>291</v>
       </c>
       <c r="D34" s="37">
-        <v>82905</v>
+        <v>84744</v>
       </c>
       <c r="E34" s="37">
-        <v>59706</v>
+        <v>60604</v>
       </c>
       <c r="F34" s="37">
-        <v>23199</v>
+        <v>24140</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11485,13 +11485,13 @@
         <v>295</v>
       </c>
       <c r="D35" s="37">
-        <v>130262</v>
+        <v>131783</v>
       </c>
       <c r="E35" s="37">
-        <v>86942</v>
+        <v>88045</v>
       </c>
       <c r="F35" s="37">
-        <v>43320</v>
+        <v>43738</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11506,13 +11506,13 @@
         <v>294</v>
       </c>
       <c r="D36" s="37">
-        <v>39691</v>
+        <v>40105</v>
       </c>
       <c r="E36" s="37">
-        <v>27123</v>
+        <v>27392</v>
       </c>
       <c r="F36" s="37">
-        <v>12568</v>
+        <v>12713</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11527,13 +11527,13 @@
         <v>280</v>
       </c>
       <c r="D37" s="37">
-        <v>195991</v>
+        <v>196589</v>
       </c>
       <c r="E37" s="37">
-        <v>130321</v>
+        <v>130437</v>
       </c>
       <c r="F37" s="37">
-        <v>65670</v>
+        <v>66152</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11548,13 +11548,13 @@
         <v>292</v>
       </c>
       <c r="D38" s="37">
-        <v>21999</v>
+        <v>22381</v>
       </c>
       <c r="E38" s="37">
-        <v>15412</v>
+        <v>15639</v>
       </c>
       <c r="F38" s="37">
-        <v>6587</v>
+        <v>6742</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11569,13 +11569,13 @@
         <v>293</v>
       </c>
       <c r="D39" s="37">
-        <v>21648</v>
+        <v>22026</v>
       </c>
       <c r="E39" s="37">
-        <v>15691</v>
+        <v>15939</v>
       </c>
       <c r="F39" s="37">
-        <v>5957</v>
+        <v>6087</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11590,13 +11590,13 @@
         <v>291</v>
       </c>
       <c r="D40" s="37">
-        <v>57048</v>
+        <v>58205</v>
       </c>
       <c r="E40" s="37">
-        <v>43370</v>
+        <v>44066</v>
       </c>
       <c r="F40" s="37">
-        <v>13678</v>
+        <v>14139</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11611,13 +11611,13 @@
         <v>295</v>
       </c>
       <c r="D41" s="37">
-        <v>119617</v>
+        <v>121488</v>
       </c>
       <c r="E41" s="37">
-        <v>86250</v>
+        <v>87559</v>
       </c>
       <c r="F41" s="37">
-        <v>33367</v>
+        <v>33929</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11632,13 +11632,13 @@
         <v>294</v>
       </c>
       <c r="D42" s="37">
-        <v>28824</v>
+        <v>29152</v>
       </c>
       <c r="E42" s="37">
-        <v>20514</v>
+        <v>20738</v>
       </c>
       <c r="F42" s="37">
-        <v>8310</v>
+        <v>8414</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11653,13 +11653,13 @@
         <v>280</v>
       </c>
       <c r="D43" s="37">
-        <v>140411</v>
+        <v>141003</v>
       </c>
       <c r="E43" s="37">
-        <v>98807</v>
+        <v>98896</v>
       </c>
       <c r="F43" s="37">
-        <v>41604</v>
+        <v>42107</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11674,13 +11674,13 @@
         <v>292</v>
       </c>
       <c r="D44" s="37">
-        <v>29019</v>
+        <v>29778</v>
       </c>
       <c r="E44" s="37">
-        <v>21493</v>
+        <v>21807</v>
       </c>
       <c r="F44" s="37">
-        <v>7526</v>
+        <v>7971</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11695,13 +11695,13 @@
         <v>293</v>
       </c>
       <c r="D45" s="37">
-        <v>24387</v>
+        <v>25171</v>
       </c>
       <c r="E45" s="37">
-        <v>19249</v>
+        <v>19507</v>
       </c>
       <c r="F45" s="37">
-        <v>5138</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11715,13 +11715,13 @@
         <v>291</v>
       </c>
       <c r="D46" s="37">
-        <v>59249</v>
+        <v>61170</v>
       </c>
       <c r="E46" s="37">
-        <v>46320</v>
+        <v>47250</v>
       </c>
       <c r="F46" s="37">
-        <v>12929</v>
+        <v>13920</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11736,13 +11736,13 @@
         <v>295</v>
       </c>
       <c r="D47" s="37">
-        <v>260638</v>
+        <v>267171</v>
       </c>
       <c r="E47" s="37">
-        <v>197308</v>
+        <v>199401</v>
       </c>
       <c r="F47" s="37">
-        <v>63330</v>
+        <v>67770</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11757,13 +11757,13 @@
         <v>294</v>
       </c>
       <c r="D48" s="37">
-        <v>41930</v>
+        <v>43771</v>
       </c>
       <c r="E48" s="37">
-        <v>31128</v>
+        <v>31573</v>
       </c>
       <c r="F48" s="37">
-        <v>10802</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11777,13 +11777,13 @@
         <v>280</v>
       </c>
       <c r="D49" s="37">
-        <v>187758</v>
+        <v>188509</v>
       </c>
       <c r="E49" s="37">
-        <v>139134</v>
+        <v>139146</v>
       </c>
       <c r="F49" s="37">
-        <v>48624</v>
+        <v>49363</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11798,13 +11798,13 @@
         <v>292</v>
       </c>
       <c r="D50" s="37">
-        <v>6094</v>
+        <v>6243</v>
       </c>
       <c r="E50" s="37">
-        <v>4367</v>
+        <v>4403</v>
       </c>
       <c r="F50" s="37">
-        <v>1727</v>
+        <v>1840</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11819,13 +11819,13 @@
         <v>293</v>
       </c>
       <c r="D51" s="37">
-        <v>4116</v>
+        <v>4233</v>
       </c>
       <c r="E51" s="37">
-        <v>3167</v>
+        <v>3205</v>
       </c>
       <c r="F51" s="37">
-        <v>949</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11839,13 +11839,13 @@
         <v>291</v>
       </c>
       <c r="D52" s="37">
-        <v>11983</v>
+        <v>12319</v>
       </c>
       <c r="E52" s="37">
-        <v>9481</v>
+        <v>9642</v>
       </c>
       <c r="F52" s="37">
-        <v>2502</v>
+        <v>2677</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11860,13 +11860,13 @@
         <v>295</v>
       </c>
       <c r="D53" s="37">
-        <v>72317</v>
+        <v>73604</v>
       </c>
       <c r="E53" s="37">
-        <v>52413</v>
+        <v>52812</v>
       </c>
       <c r="F53" s="37">
-        <v>19904</v>
+        <v>20792</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11881,13 +11881,13 @@
         <v>294</v>
       </c>
       <c r="D54" s="37">
-        <v>21642</v>
+        <v>21969</v>
       </c>
       <c r="E54" s="37">
-        <v>15244</v>
+        <v>15343</v>
       </c>
       <c r="F54" s="37">
-        <v>6398</v>
+        <v>6626</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11902,13 +11902,13 @@
         <v>280</v>
       </c>
       <c r="D55" s="37">
-        <v>52701</v>
+        <v>52895</v>
       </c>
       <c r="E55" s="37">
-        <v>39071</v>
+        <v>39093</v>
       </c>
       <c r="F55" s="37">
-        <v>13630</v>
+        <v>13802</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11964,10 +11964,10 @@
         <v>291</v>
       </c>
       <c r="D58" s="37">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E58" s="37">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F58" s="37">
         <v>10</v>
@@ -11985,13 +11985,13 @@
         <v>295</v>
       </c>
       <c r="D59" s="37">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E59" s="37">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F59" s="37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12027,10 +12027,10 @@
         <v>280</v>
       </c>
       <c r="D61" s="37">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E61" s="37">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F61" s="37">
         <v>52</v>
@@ -12048,13 +12048,13 @@
         <v>292</v>
       </c>
       <c r="D62" s="37">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="E62" s="37">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="F62" s="37">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12069,13 +12069,13 @@
         <v>293</v>
       </c>
       <c r="D63" s="37">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E63" s="37">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F63" s="37">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12092,10 +12092,10 @@
         <v>1389</v>
       </c>
       <c r="E64" s="37">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F64" s="37">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12110,13 +12110,13 @@
         <v>295</v>
       </c>
       <c r="D65" s="37">
-        <v>2913</v>
+        <v>2890</v>
       </c>
       <c r="E65" s="37">
-        <v>1946</v>
+        <v>1913</v>
       </c>
       <c r="F65" s="37">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12131,13 +12131,13 @@
         <v>294</v>
       </c>
       <c r="D66" s="37">
-        <v>2254</v>
+        <v>2215</v>
       </c>
       <c r="E66" s="37">
-        <v>1390</v>
+        <v>1340</v>
       </c>
       <c r="F66" s="37">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12151,13 +12151,13 @@
         <v>280</v>
       </c>
       <c r="D67" s="37">
-        <v>10279</v>
+        <v>10280</v>
       </c>
       <c r="E67" s="37">
-        <v>8397</v>
+        <v>8394</v>
       </c>
       <c r="F67" s="37">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12172,13 +12172,13 @@
         <v>292</v>
       </c>
       <c r="D68" s="37">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E68" s="37">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F68" s="37">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12193,13 +12193,13 @@
         <v>293</v>
       </c>
       <c r="D69" s="37">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E69" s="37">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F69" s="37">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12216,10 +12216,10 @@
         <v>653</v>
       </c>
       <c r="E70" s="37">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F70" s="37">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12234,13 +12234,13 @@
         <v>295</v>
       </c>
       <c r="D71" s="37">
-        <v>2436</v>
+        <v>2408</v>
       </c>
       <c r="E71" s="37">
-        <v>1663</v>
+        <v>1604</v>
       </c>
       <c r="F71" s="37">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12255,13 +12255,13 @@
         <v>294</v>
       </c>
       <c r="D72" s="37">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="E72" s="37">
-        <v>858</v>
+        <v>814</v>
       </c>
       <c r="F72" s="37">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12275,13 +12275,13 @@
         <v>280</v>
       </c>
       <c r="D73" s="37">
-        <v>10561</v>
+        <v>10556</v>
       </c>
       <c r="E73" s="37">
-        <v>8346</v>
+        <v>8340</v>
       </c>
       <c r="F73" s="37">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12296,13 +12296,13 @@
         <v>292</v>
       </c>
       <c r="D74" s="37">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E74" s="37">
-        <v>1291</v>
+        <v>1226</v>
       </c>
       <c r="F74" s="37">
-        <v>675</v>
+        <v>739</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12317,13 +12317,13 @@
         <v>293</v>
       </c>
       <c r="D75" s="37">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="E75" s="37">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="F75" s="37">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12338,13 +12338,13 @@
         <v>291</v>
       </c>
       <c r="D76" s="37">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="E76" s="37">
-        <v>1032</v>
+        <v>976</v>
       </c>
       <c r="F76" s="37">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12359,13 +12359,13 @@
         <v>295</v>
       </c>
       <c r="D77" s="37">
-        <v>11778</v>
+        <v>11772</v>
       </c>
       <c r="E77" s="37">
-        <v>8113</v>
+        <v>7542</v>
       </c>
       <c r="F77" s="37">
-        <v>3665</v>
+        <v>4230</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12380,13 +12380,13 @@
         <v>294</v>
       </c>
       <c r="D78" s="37">
-        <v>4851</v>
+        <v>4879</v>
       </c>
       <c r="E78" s="37">
-        <v>3213</v>
+        <v>2953</v>
       </c>
       <c r="F78" s="37">
-        <v>1638</v>
+        <v>1926</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12401,13 +12401,13 @@
         <v>280</v>
       </c>
       <c r="D79" s="37">
-        <v>18892</v>
+        <v>18891</v>
       </c>
       <c r="E79" s="37">
-        <v>13090</v>
+        <v>13087</v>
       </c>
       <c r="F79" s="37">
-        <v>5802</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12421,13 +12421,13 @@
         <v>292</v>
       </c>
       <c r="D80" s="37">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E80" s="37">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F80" s="37">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12441,13 +12441,13 @@
         <v>293</v>
       </c>
       <c r="D81" s="37">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E81" s="37">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F81" s="37">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12461,13 +12461,13 @@
         <v>291</v>
       </c>
       <c r="D82" s="37">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E82" s="37">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F82" s="37">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12481,13 +12481,13 @@
         <v>295</v>
       </c>
       <c r="D83" s="37">
-        <v>2185</v>
+        <v>2200</v>
       </c>
       <c r="E83" s="37">
-        <v>1548</v>
+        <v>1445</v>
       </c>
       <c r="F83" s="37">
-        <v>637</v>
+        <v>755</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12501,13 +12501,13 @@
         <v>294</v>
       </c>
       <c r="D84" s="37">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="E84" s="37">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="F84" s="37">
-        <v>256</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12521,13 +12521,13 @@
         <v>280</v>
       </c>
       <c r="D85" s="37">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="E85" s="37">
         <v>2202</v>
       </c>
       <c r="F85" s="37">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12661,13 +12661,13 @@
         <v>281</v>
       </c>
       <c r="D92" s="37">
-        <v>4213172</v>
+        <v>4268998</v>
       </c>
       <c r="E92" s="37">
-        <v>2998680</v>
+        <v>3020660</v>
       </c>
       <c r="F92" s="37">
-        <v>1214492</v>
+        <v>1248338</v>
       </c>
     </row>
   </sheetData>
@@ -12678,7 +12678,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12885,7 +12885,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37984</v>
+        <v>37993</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12896,7 +12896,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21687</v>
+        <v>21688</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12907,7 +12907,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12918,7 +12918,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>10032</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6237</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12940,7 +12940,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24106</v>
+        <v>24112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12962,7 +12962,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36169</v>
+        <v>36177</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40944</v>
+        <v>40953</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12984,7 +12984,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44035</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13006,7 +13006,7 @@
         <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8474</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13017,7 +13017,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28593</v>
+        <v>28594</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13039,7 +13039,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>28073</v>
+        <v>28102</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13050,7 +13050,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21810</v>
+        <v>21814</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23865</v>
+        <v>23866</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>13062</v>
+        <v>13067</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13083,7 +13083,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="32">
-        <v>2697</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22461</v>
+        <v>22468</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13116,7 +13116,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>30229</v>
+        <v>30224</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27658</v>
+        <v>27654</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13138,7 +13138,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33412</v>
+        <v>33429</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18588</v>
+        <v>18594</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>7790</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13171,7 +13171,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34402</v>
+        <v>34407</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13182,7 +13182,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41455</v>
+        <v>41448</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13193,7 +13193,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>42462</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13204,7 +13204,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38775</v>
+        <v>38779</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13215,7 +13215,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36701</v>
+        <v>36721</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13226,7 +13226,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>18038</v>
+        <v>18086</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13248,7 +13248,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31435</v>
+        <v>31439</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13259,7 +13259,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>30992</v>
+        <v>31063</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13270,7 +13270,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>43301</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>42152</v>
+        <v>42178</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13292,7 +13292,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>47093</v>
+        <v>47121</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>26137</v>
+        <v>26171</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13325,7 +13325,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>23146</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13336,7 +13336,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>32548</v>
+        <v>32694</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>31455</v>
+        <v>31644</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13358,7 +13358,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>28827</v>
+        <v>29174</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13369,7 +13369,7 @@
         <v>44239</v>
       </c>
       <c r="C62" s="32">
-        <v>34888</v>
+        <v>36059</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,7 +13380,7 @@
         <v>44240</v>
       </c>
       <c r="C63" s="32">
-        <v>13987</v>
+        <v>19528</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13391,7 +13391,7 @@
         <v>44241</v>
       </c>
       <c r="C64" s="32">
-        <v>638</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,18 +13402,18 @@
         <v>44242</v>
       </c>
       <c r="C65" s="32">
-        <v>582</v>
+        <v>893</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B66" s="35">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="C66" s="32">
-        <v>139</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13421,10 +13421,10 @@
         <v>277</v>
       </c>
       <c r="B67" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C67" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13432,10 +13432,10 @@
         <v>277</v>
       </c>
       <c r="B68" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C68" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13443,10 +13443,10 @@
         <v>277</v>
       </c>
       <c r="B69" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C69" s="32">
-        <v>6644</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13454,10 +13454,10 @@
         <v>277</v>
       </c>
       <c r="B70" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C70" s="32">
-        <v>10831</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13465,10 +13465,10 @@
         <v>277</v>
       </c>
       <c r="B71" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C71" s="32">
-        <v>4707</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13476,10 +13476,10 @@
         <v>277</v>
       </c>
       <c r="B72" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C72" s="32">
-        <v>2533</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13487,10 +13487,10 @@
         <v>277</v>
       </c>
       <c r="B73" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C73" s="32">
-        <v>7904</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13498,10 +13498,10 @@
         <v>277</v>
       </c>
       <c r="B74" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C74" s="32">
-        <v>7406</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13509,10 +13509,10 @@
         <v>277</v>
       </c>
       <c r="B75" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C75" s="32">
-        <v>10801</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13520,10 +13520,10 @@
         <v>277</v>
       </c>
       <c r="B76" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C76" s="32">
-        <v>4639</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13531,10 +13531,10 @@
         <v>277</v>
       </c>
       <c r="B77" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C77" s="32">
-        <v>667</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13542,10 +13542,10 @@
         <v>277</v>
       </c>
       <c r="B78" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C78" s="32">
-        <v>3186</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13553,10 +13553,10 @@
         <v>277</v>
       </c>
       <c r="B79" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C79" s="32">
-        <v>2242</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13564,10 +13564,10 @@
         <v>277</v>
       </c>
       <c r="B80" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C80" s="32">
-        <v>12878</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13575,10 +13575,10 @@
         <v>277</v>
       </c>
       <c r="B81" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C81" s="32">
-        <v>16962</v>
+        <v>12878</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13586,10 +13586,10 @@
         <v>277</v>
       </c>
       <c r="B82" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C82" s="32">
-        <v>20853</v>
+        <v>16963</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13597,10 +13597,10 @@
         <v>277</v>
       </c>
       <c r="B83" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C83" s="32">
-        <v>12630</v>
+        <v>20858</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13608,10 +13608,10 @@
         <v>277</v>
       </c>
       <c r="B84" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C84" s="32">
-        <v>1202</v>
+        <v>12631</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13619,10 +13619,10 @@
         <v>277</v>
       </c>
       <c r="B85" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C85" s="32">
-        <v>5769</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13630,10 +13630,10 @@
         <v>277</v>
       </c>
       <c r="B86" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C86" s="32">
-        <v>3330</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13641,10 +13641,10 @@
         <v>277</v>
       </c>
       <c r="B87" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C87" s="32">
-        <v>14933</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13652,10 +13652,10 @@
         <v>277</v>
       </c>
       <c r="B88" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C88" s="32">
-        <v>16694</v>
+        <v>14938</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13663,10 +13663,10 @@
         <v>277</v>
       </c>
       <c r="B89" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C89" s="32">
-        <v>20127</v>
+        <v>16695</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13674,10 +13674,10 @@
         <v>277</v>
       </c>
       <c r="B90" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C90" s="32">
-        <v>22936</v>
+        <v>20136</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,10 +13685,10 @@
         <v>277</v>
       </c>
       <c r="B91" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C91" s="32">
-        <v>24611</v>
+        <v>22948</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13696,10 +13696,10 @@
         <v>277</v>
       </c>
       <c r="B92" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C92" s="32">
-        <v>10690</v>
+        <v>24634</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13707,10 +13707,10 @@
         <v>277</v>
       </c>
       <c r="B93" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C93" s="32">
-        <v>4453</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13718,10 +13718,10 @@
         <v>277</v>
       </c>
       <c r="B94" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C94" s="32">
-        <v>18187</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13729,10 +13729,10 @@
         <v>277</v>
       </c>
       <c r="B95" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C95" s="32">
-        <v>20127</v>
+        <v>18189</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13740,10 +13740,10 @@
         <v>277</v>
       </c>
       <c r="B96" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C96" s="32">
-        <v>20207</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13751,10 +13751,10 @@
         <v>277</v>
       </c>
       <c r="B97" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C97" s="32">
-        <v>17380</v>
+        <v>20236</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13762,10 +13762,10 @@
         <v>277</v>
       </c>
       <c r="B98" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C98" s="32">
-        <v>17622</v>
+        <v>17382</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13773,10 +13773,10 @@
         <v>277</v>
       </c>
       <c r="B99" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C99" s="32">
-        <v>11195</v>
+        <v>17623</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13784,10 +13784,10 @@
         <v>277</v>
       </c>
       <c r="B100" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C100" s="32">
-        <v>1730</v>
+        <v>11199</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13795,10 +13795,10 @@
         <v>277</v>
       </c>
       <c r="B101" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C101" s="32">
-        <v>8676</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13806,10 +13806,10 @@
         <v>277</v>
       </c>
       <c r="B102" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C102" s="32">
-        <v>17332</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13817,10 +13817,10 @@
         <v>277</v>
       </c>
       <c r="B103" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C103" s="32">
-        <v>22886</v>
+        <v>17332</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13828,10 +13828,10 @@
         <v>277</v>
       </c>
       <c r="B104" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C104" s="32">
-        <v>22002</v>
+        <v>22876</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13839,10 +13839,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C105" s="32">
-        <v>23543</v>
+        <v>22017</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13850,10 +13850,10 @@
         <v>277</v>
       </c>
       <c r="B106" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C106" s="32">
-        <v>13143</v>
+        <v>23559</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13861,10 +13861,10 @@
         <v>277</v>
       </c>
       <c r="B107" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C107" s="32">
-        <v>5213</v>
+        <v>13147</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,10 +13872,10 @@
         <v>277</v>
       </c>
       <c r="B108" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C108" s="32">
-        <v>23155</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13883,10 +13883,10 @@
         <v>277</v>
       </c>
       <c r="B109" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C109" s="32">
-        <v>30270</v>
+        <v>23154</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13894,10 +13894,10 @@
         <v>277</v>
       </c>
       <c r="B110" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C110" s="32">
-        <v>32222</v>
+        <v>30271</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13905,10 +13905,10 @@
         <v>277</v>
       </c>
       <c r="B111" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C111" s="32">
-        <v>31283</v>
+        <v>32232</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13916,10 +13916,10 @@
         <v>277</v>
       </c>
       <c r="B112" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C112" s="32">
-        <v>29075</v>
+        <v>31287</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13927,10 +13927,10 @@
         <v>277</v>
       </c>
       <c r="B113" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C113" s="32">
-        <v>14441</v>
+        <v>29089</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13938,10 +13938,10 @@
         <v>277</v>
       </c>
       <c r="B114" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C114" s="32">
-        <v>5928</v>
+        <v>14471</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,10 +13949,10 @@
         <v>277</v>
       </c>
       <c r="B115" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C115" s="32">
-        <v>23823</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13960,10 +13960,10 @@
         <v>277</v>
       </c>
       <c r="B116" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C116" s="32">
-        <v>27598</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13971,10 +13971,10 @@
         <v>277</v>
       </c>
       <c r="B117" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C117" s="32">
-        <v>35510</v>
+        <v>27710</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13982,10 +13982,10 @@
         <v>277</v>
       </c>
       <c r="B118" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C118" s="32">
-        <v>36617</v>
+        <v>35528</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13993,10 +13993,10 @@
         <v>277</v>
       </c>
       <c r="B119" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C119" s="32">
-        <v>40494</v>
+        <v>36643</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14004,10 +14004,10 @@
         <v>277</v>
       </c>
       <c r="B120" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C120" s="32">
-        <v>23848</v>
+        <v>40503</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14015,10 +14015,10 @@
         <v>277</v>
       </c>
       <c r="B121" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C121" s="32">
-        <v>5749</v>
+        <v>23866</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14026,10 +14026,10 @@
         <v>277</v>
       </c>
       <c r="B122" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C122" s="32">
-        <v>21213</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14037,10 +14037,10 @@
         <v>277</v>
       </c>
       <c r="B123" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C123" s="32">
-        <v>29864</v>
+        <v>21226</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14048,10 +14048,10 @@
         <v>277</v>
       </c>
       <c r="B124" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C124" s="32">
-        <v>30305</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,10 +14059,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="35">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C125" s="32">
-        <v>27402</v>
+        <v>30472</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14070,10 +14070,10 @@
         <v>277</v>
       </c>
       <c r="B126" s="35">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C126" s="32">
-        <v>31493</v>
+        <v>27725</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14081,10 +14081,10 @@
         <v>277</v>
       </c>
       <c r="B127" s="35">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="C127" s="32">
-        <v>12389</v>
+        <v>32423</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14092,10 +14092,10 @@
         <v>277</v>
       </c>
       <c r="B128" s="35">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="C128" s="32">
-        <v>463</v>
+        <v>16596</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14103,32 +14103,32 @@
         <v>277</v>
       </c>
       <c r="B129" s="35">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="C129" s="32">
-        <v>545</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" s="35">
-        <v>44179</v>
+        <v>44242</v>
       </c>
       <c r="C130" s="32">
-        <v>24</v>
+        <v>834</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B131" s="35">
-        <v>44180</v>
+        <v>44243</v>
       </c>
       <c r="C131" s="32">
-        <v>305</v>
+        <v>740</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14136,10 +14136,10 @@
         <v>278</v>
       </c>
       <c r="B132" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C132" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14147,10 +14147,10 @@
         <v>278</v>
       </c>
       <c r="B133" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C133" s="32">
-        <v>1431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14158,10 +14158,10 @@
         <v>278</v>
       </c>
       <c r="B134" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C134" s="32">
-        <v>2029</v>
+        <v>955</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14169,10 +14169,10 @@
         <v>278</v>
       </c>
       <c r="B135" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C135" s="32">
-        <v>1009</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14180,10 +14180,10 @@
         <v>278</v>
       </c>
       <c r="B136" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C136" s="32">
-        <v>499</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14191,10 +14191,10 @@
         <v>278</v>
       </c>
       <c r="B137" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C137" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14202,10 +14202,10 @@
         <v>278</v>
       </c>
       <c r="B138" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C138" s="32">
-        <v>2111</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14213,10 +14213,10 @@
         <v>278</v>
       </c>
       <c r="B139" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C139" s="32">
-        <v>2926</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14224,10 +14224,10 @@
         <v>278</v>
       </c>
       <c r="B140" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C140" s="32">
-        <v>1887</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14235,10 +14235,10 @@
         <v>278</v>
       </c>
       <c r="B141" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C141" s="32">
-        <v>325</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14246,10 +14246,10 @@
         <v>278</v>
       </c>
       <c r="B142" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C142" s="32">
-        <v>1725</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14257,10 +14257,10 @@
         <v>278</v>
       </c>
       <c r="B143" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C143" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14268,10 +14268,10 @@
         <v>278</v>
       </c>
       <c r="B144" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C144" s="32">
-        <v>6666</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14279,10 +14279,10 @@
         <v>278</v>
       </c>
       <c r="B145" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C145" s="32">
-        <v>10746</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14290,10 +14290,10 @@
         <v>278</v>
       </c>
       <c r="B146" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C146" s="32">
-        <v>17522</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14301,10 +14301,10 @@
         <v>278</v>
       </c>
       <c r="B147" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C147" s="32">
-        <v>10884</v>
+        <v>10747</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14312,10 +14312,10 @@
         <v>278</v>
       </c>
       <c r="B148" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C148" s="32">
-        <v>1336</v>
+        <v>17525</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14323,10 +14323,10 @@
         <v>278</v>
       </c>
       <c r="B149" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C149" s="32">
-        <v>6315</v>
+        <v>10885</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14334,10 +14334,10 @@
         <v>278</v>
       </c>
       <c r="B150" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C150" s="32">
-        <v>3538</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14345,10 +14345,10 @@
         <v>278</v>
       </c>
       <c r="B151" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C151" s="32">
-        <v>16366</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,10 +14356,10 @@
         <v>278</v>
       </c>
       <c r="B152" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C152" s="32">
-        <v>18456</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14367,10 +14367,10 @@
         <v>278</v>
       </c>
       <c r="B153" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C153" s="32">
-        <v>20385</v>
+        <v>16371</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14378,10 +14378,10 @@
         <v>278</v>
       </c>
       <c r="B154" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C154" s="32">
-        <v>24467</v>
+        <v>18462</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14389,10 +14389,10 @@
         <v>278</v>
       </c>
       <c r="B155" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C155" s="32">
-        <v>24765</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14400,10 +14400,10 @@
         <v>278</v>
       </c>
       <c r="B156" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C156" s="32">
-        <v>14056</v>
+        <v>24527</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14411,10 +14411,10 @@
         <v>278</v>
       </c>
       <c r="B157" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C157" s="32">
-        <v>4421</v>
+        <v>24798</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14422,10 +14422,10 @@
         <v>278</v>
       </c>
       <c r="B158" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C158" s="32">
-        <v>23812</v>
+        <v>14056</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14433,10 +14433,10 @@
         <v>278</v>
       </c>
       <c r="B159" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C159" s="32">
-        <v>29115</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14444,10 +14444,10 @@
         <v>278</v>
       </c>
       <c r="B160" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C160" s="32">
-        <v>30180</v>
+        <v>23812</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14455,10 +14455,10 @@
         <v>278</v>
       </c>
       <c r="B161" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C161" s="32">
-        <v>34470</v>
+        <v>29116</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14466,10 +14466,10 @@
         <v>278</v>
       </c>
       <c r="B162" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C162" s="32">
-        <v>30651</v>
+        <v>30201</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14477,10 +14477,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C163" s="32">
-        <v>25570</v>
+        <v>34484</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14488,10 +14488,10 @@
         <v>278</v>
       </c>
       <c r="B164" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C164" s="32">
-        <v>6717</v>
+        <v>30658</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14499,10 +14499,10 @@
         <v>278</v>
       </c>
       <c r="B165" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C165" s="32">
-        <v>12166</v>
+        <v>25594</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14510,10 +14510,10 @@
         <v>278</v>
       </c>
       <c r="B166" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C166" s="32">
-        <v>22956</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14521,10 +14521,10 @@
         <v>278</v>
       </c>
       <c r="B167" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C167" s="32">
-        <v>32122</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14532,10 +14532,10 @@
         <v>278</v>
       </c>
       <c r="B168" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C168" s="32">
-        <v>33889</v>
+        <v>22963</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14543,10 +14543,10 @@
         <v>278</v>
       </c>
       <c r="B169" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C169" s="32">
-        <v>30493</v>
+        <v>32140</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14554,10 +14554,10 @@
         <v>278</v>
       </c>
       <c r="B170" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C170" s="32">
-        <v>21857</v>
+        <v>33901</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14565,10 +14565,10 @@
         <v>278</v>
       </c>
       <c r="B171" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C171" s="32">
-        <v>9007</v>
+        <v>30522</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,10 +14576,10 @@
         <v>278</v>
       </c>
       <c r="B172" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C172" s="32">
-        <v>26868</v>
+        <v>21862</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14587,10 +14587,10 @@
         <v>278</v>
       </c>
       <c r="B173" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C173" s="32">
-        <v>38022</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14598,10 +14598,10 @@
         <v>278</v>
       </c>
       <c r="B174" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C174" s="32">
-        <v>44792</v>
+        <v>26868</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14609,10 +14609,10 @@
         <v>278</v>
       </c>
       <c r="B175" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C175" s="32">
-        <v>49187</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14620,10 +14620,10 @@
         <v>278</v>
       </c>
       <c r="B176" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C176" s="32">
-        <v>44851</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14631,10 +14631,10 @@
         <v>278</v>
       </c>
       <c r="B177" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C177" s="32">
-        <v>23000</v>
+        <v>49181</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,10 +14642,10 @@
         <v>278</v>
       </c>
       <c r="B178" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C178" s="32">
-        <v>7201</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14653,10 +14653,10 @@
         <v>278</v>
       </c>
       <c r="B179" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C179" s="32">
-        <v>35198</v>
+        <v>23018</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,10 +14664,10 @@
         <v>278</v>
       </c>
       <c r="B180" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C180" s="32">
-        <v>44731</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14675,10 +14675,10 @@
         <v>278</v>
       </c>
       <c r="B181" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C181" s="32">
-        <v>58602</v>
+        <v>35216</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14686,10 +14686,10 @@
         <v>278</v>
       </c>
       <c r="B182" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C182" s="32">
-        <v>69599</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14697,10 +14697,10 @@
         <v>278</v>
       </c>
       <c r="B183" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C183" s="32">
-        <v>71383</v>
+        <v>58639</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14708,10 +14708,10 @@
         <v>278</v>
       </c>
       <c r="B184" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C184" s="32">
-        <v>48094</v>
+        <v>69633</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14719,10 +14719,10 @@
         <v>278</v>
       </c>
       <c r="B185" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C185" s="32">
-        <v>15217</v>
+        <v>71394</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14730,10 +14730,10 @@
         <v>278</v>
       </c>
       <c r="B186" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C186" s="32">
-        <v>37166</v>
+        <v>48113</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,10 +14741,10 @@
         <v>278</v>
       </c>
       <c r="B187" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C187" s="32">
-        <v>49543</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14752,10 +14752,10 @@
         <v>278</v>
       </c>
       <c r="B188" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C188" s="32">
-        <v>51604</v>
+        <v>37226</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14763,10 +14763,10 @@
         <v>278</v>
       </c>
       <c r="B189" s="35">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C189" s="32">
-        <v>48532</v>
+        <v>49705</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14774,10 +14774,10 @@
         <v>278</v>
       </c>
       <c r="B190" s="35">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="C190" s="32">
-        <v>58441</v>
+        <v>51836</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14785,10 +14785,10 @@
         <v>278</v>
       </c>
       <c r="B191" s="35">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="C191" s="32">
-        <v>15269</v>
+        <v>48933</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14796,10 +14796,10 @@
         <v>278</v>
       </c>
       <c r="B192" s="35">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="C192" s="32">
-        <v>352</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14807,43 +14807,43 @@
         <v>278</v>
       </c>
       <c r="B193" s="35">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="C193" s="32">
-        <v>513</v>
+        <v>29448</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B194" s="35">
-        <v>44179</v>
+        <v>44241</v>
       </c>
       <c r="C194" s="32">
-        <v>2</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B195" s="35">
-        <v>44180</v>
+        <v>44242</v>
       </c>
       <c r="C195" s="32">
-        <v>7</v>
+        <v>736</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B196" s="35">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="C196" s="32">
-        <v>34</v>
+        <v>860</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14851,10 +14851,10 @@
         <v>279</v>
       </c>
       <c r="B197" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C197" s="32">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14862,10 +14862,10 @@
         <v>279</v>
       </c>
       <c r="B198" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C198" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14873,10 +14873,10 @@
         <v>279</v>
       </c>
       <c r="B199" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C199" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14884,10 +14884,10 @@
         <v>279</v>
       </c>
       <c r="B200" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C200" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14895,10 +14895,10 @@
         <v>279</v>
       </c>
       <c r="B201" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C201" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14906,10 +14906,10 @@
         <v>279</v>
       </c>
       <c r="B202" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C202" s="32">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14917,10 +14917,10 @@
         <v>279</v>
       </c>
       <c r="B203" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C203" s="32">
-        <v>585</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14928,10 +14928,10 @@
         <v>279</v>
       </c>
       <c r="B204" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C204" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14939,10 +14939,10 @@
         <v>279</v>
       </c>
       <c r="B205" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C205" s="32">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14950,10 +14950,10 @@
         <v>279</v>
       </c>
       <c r="B206" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C206" s="32">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14961,10 +14961,10 @@
         <v>279</v>
       </c>
       <c r="B207" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C207" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14972,10 +14972,10 @@
         <v>279</v>
       </c>
       <c r="B208" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C208" s="32">
-        <v>2728</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14983,10 +14983,10 @@
         <v>279</v>
       </c>
       <c r="B209" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C209" s="32">
-        <v>5576</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14994,10 +14994,10 @@
         <v>279</v>
       </c>
       <c r="B210" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C210" s="32">
-        <v>7212</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15005,10 +15005,10 @@
         <v>279</v>
       </c>
       <c r="B211" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C211" s="32">
-        <v>3220</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15016,10 +15016,10 @@
         <v>279</v>
       </c>
       <c r="B212" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C212" s="32">
-        <v>419</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15027,10 +15027,10 @@
         <v>279</v>
       </c>
       <c r="B213" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C213" s="32">
-        <v>2058</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15038,10 +15038,10 @@
         <v>279</v>
       </c>
       <c r="B214" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C214" s="32">
-        <v>1244</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15049,10 +15049,10 @@
         <v>279</v>
       </c>
       <c r="B215" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C215" s="32">
-        <v>6672</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15060,10 +15060,10 @@
         <v>279</v>
       </c>
       <c r="B216" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C216" s="32">
-        <v>5866</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15071,10 +15071,10 @@
         <v>279</v>
       </c>
       <c r="B217" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C217" s="32">
-        <v>7599</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15082,10 +15082,10 @@
         <v>279</v>
       </c>
       <c r="B218" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C218" s="32">
-        <v>9441</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15093,10 +15093,10 @@
         <v>279</v>
       </c>
       <c r="B219" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C219" s="32">
-        <v>8663</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15104,10 +15104,10 @@
         <v>279</v>
       </c>
       <c r="B220" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C220" s="32">
-        <v>4762</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15115,10 +15115,10 @@
         <v>279</v>
       </c>
       <c r="B221" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C221" s="32">
-        <v>1386</v>
+        <v>9454</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15126,10 +15126,10 @@
         <v>279</v>
       </c>
       <c r="B222" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C222" s="32">
-        <v>8427</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15137,10 +15137,10 @@
         <v>279</v>
       </c>
       <c r="B223" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C223" s="32">
-        <v>9314</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15148,10 +15148,10 @@
         <v>279</v>
       </c>
       <c r="B224" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C224" s="32">
-        <v>11620</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15159,10 +15159,10 @@
         <v>279</v>
       </c>
       <c r="B225" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C225" s="32">
-        <v>12142</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15170,10 +15170,10 @@
         <v>279</v>
       </c>
       <c r="B226" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C226" s="32">
-        <v>9027</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15181,10 +15181,10 @@
         <v>279</v>
       </c>
       <c r="B227" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C227" s="32">
-        <v>5484</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15192,10 +15192,10 @@
         <v>279</v>
       </c>
       <c r="B228" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C228" s="32">
-        <v>1722</v>
+        <v>12145</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15203,10 +15203,10 @@
         <v>279</v>
       </c>
       <c r="B229" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C229" s="32">
-        <v>5172</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15214,10 +15214,10 @@
         <v>279</v>
       </c>
       <c r="B230" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C230" s="32">
-        <v>8808</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15225,10 +15225,10 @@
         <v>279</v>
       </c>
       <c r="B231" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C231" s="32">
-        <v>11070</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,10 +15236,10 @@
         <v>279</v>
       </c>
       <c r="B232" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C232" s="32">
-        <v>10690</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15247,10 +15247,10 @@
         <v>279</v>
       </c>
       <c r="B233" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C233" s="32">
-        <v>8598</v>
+        <v>8808</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15258,10 +15258,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C234" s="32">
-        <v>6102</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15269,10 +15269,10 @@
         <v>279</v>
       </c>
       <c r="B235" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C235" s="32">
-        <v>2025</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15280,10 +15280,10 @@
         <v>279</v>
       </c>
       <c r="B236" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C236" s="32">
-        <v>8987</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15291,10 +15291,10 @@
         <v>279</v>
       </c>
       <c r="B237" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C237" s="32">
-        <v>13205</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15302,10 +15302,10 @@
         <v>279</v>
       </c>
       <c r="B238" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C238" s="32">
-        <v>15271</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15313,10 +15313,10 @@
         <v>279</v>
       </c>
       <c r="B239" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C239" s="32">
-        <v>15996</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15324,10 +15324,10 @@
         <v>279</v>
       </c>
       <c r="B240" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C240" s="32">
-        <v>13688</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15335,10 +15335,10 @@
         <v>279</v>
       </c>
       <c r="B241" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C241" s="32">
-        <v>7063</v>
+        <v>15257</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15346,10 +15346,10 @@
         <v>279</v>
       </c>
       <c r="B242" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C242" s="32">
-        <v>3381</v>
+        <v>15991</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15357,10 +15357,10 @@
         <v>279</v>
       </c>
       <c r="B243" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C243" s="32">
-        <v>12496</v>
+        <v>13691</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15368,10 +15368,10 @@
         <v>279</v>
       </c>
       <c r="B244" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C244" s="32">
-        <v>15901</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,10 +15379,10 @@
         <v>279</v>
       </c>
       <c r="B245" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C245" s="32">
-        <v>17412</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15390,10 +15390,10 @@
         <v>279</v>
       </c>
       <c r="B246" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C246" s="32">
-        <v>19566</v>
+        <v>12501</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15401,10 +15401,10 @@
         <v>279</v>
       </c>
       <c r="B247" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C247" s="32">
-        <v>20834</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15412,10 +15412,10 @@
         <v>279</v>
       </c>
       <c r="B248" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C248" s="32">
-        <v>12239</v>
+        <v>17418</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15423,10 +15423,10 @@
         <v>279</v>
       </c>
       <c r="B249" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C249" s="32">
-        <v>2981</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15434,10 +15434,10 @@
         <v>279</v>
       </c>
       <c r="B250" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C250" s="32">
-        <v>11430</v>
+        <v>20841</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15445,10 +15445,10 @@
         <v>279</v>
       </c>
       <c r="B251" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C251" s="32">
-        <v>14048</v>
+        <v>12245</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15456,10 +15456,10 @@
         <v>279</v>
       </c>
       <c r="B252" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C252" s="32">
-        <v>14836</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15467,10 +15467,10 @@
         <v>279</v>
       </c>
       <c r="B253" s="35">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="C253" s="32">
-        <v>13664</v>
+        <v>11438</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15478,10 +15478,10 @@
         <v>279</v>
       </c>
       <c r="B254" s="35">
-        <v>44239</v>
+        <v>44236</v>
       </c>
       <c r="C254" s="32">
-        <v>15912</v>
+        <v>14085</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15489,10 +15489,10 @@
         <v>279</v>
       </c>
       <c r="B255" s="35">
-        <v>44240</v>
+        <v>44237</v>
       </c>
       <c r="C255" s="32">
-        <v>4442</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15500,10 +15500,10 @@
         <v>279</v>
       </c>
       <c r="B256" s="35">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c r="C256" s="32">
-        <v>148</v>
+        <v>13767</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15511,54 +15511,54 @@
         <v>279</v>
       </c>
       <c r="B257" s="35">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="C257" s="32">
-        <v>136</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B258" s="35">
-        <v>44180</v>
+        <v>44240</v>
       </c>
       <c r="C258" s="32">
-        <v>2</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B259" s="35">
-        <v>44181</v>
+        <v>44241</v>
       </c>
       <c r="C259" s="32">
-        <v>6</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B260" s="35">
-        <v>44182</v>
+        <v>44242</v>
       </c>
       <c r="C260" s="32">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B261" s="35">
-        <v>44183</v>
+        <v>44243</v>
       </c>
       <c r="C261" s="32">
-        <v>40</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15566,10 +15566,10 @@
         <v>280</v>
       </c>
       <c r="B262" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C262" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15577,10 +15577,10 @@
         <v>280</v>
       </c>
       <c r="B263" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C263" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15588,10 +15588,10 @@
         <v>280</v>
       </c>
       <c r="B264" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C264" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15599,10 +15599,10 @@
         <v>280</v>
       </c>
       <c r="B265" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C265" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15610,10 +15610,10 @@
         <v>280</v>
       </c>
       <c r="B266" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C266" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15621,10 +15621,10 @@
         <v>280</v>
       </c>
       <c r="B267" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C267" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15632,10 +15632,10 @@
         <v>280</v>
       </c>
       <c r="B268" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C268" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15643,10 +15643,10 @@
         <v>280</v>
       </c>
       <c r="B269" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C269" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15654,10 +15654,10 @@
         <v>280</v>
       </c>
       <c r="B270" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C270" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15665,10 +15665,10 @@
         <v>280</v>
       </c>
       <c r="B271" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C271" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15676,10 +15676,10 @@
         <v>280</v>
       </c>
       <c r="B272" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C272" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15687,10 +15687,10 @@
         <v>280</v>
       </c>
       <c r="B273" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C273" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15698,10 +15698,10 @@
         <v>280</v>
       </c>
       <c r="B274" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C274" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15709,10 +15709,10 @@
         <v>280</v>
       </c>
       <c r="B275" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C275" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15720,10 +15720,10 @@
         <v>280</v>
       </c>
       <c r="B276" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C276" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15731,10 +15731,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C277" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15742,10 +15742,10 @@
         <v>280</v>
       </c>
       <c r="B278" s="35">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C278" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15753,10 +15753,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="35">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C279" s="32">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15764,10 +15764,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="35">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C280" s="32">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15775,10 +15775,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="35">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C281" s="32">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15786,10 +15786,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="35">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C282" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15797,10 +15797,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="35">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C283" s="32">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15808,10 +15808,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="35">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C284" s="32">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15819,10 +15819,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="35">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C285" s="32">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15830,10 +15830,10 @@
         <v>280</v>
       </c>
       <c r="B286" s="36">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C286" s="33">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15841,10 +15841,10 @@
         <v>280</v>
       </c>
       <c r="B287" s="36">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C287" s="33">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15852,10 +15852,10 @@
         <v>280</v>
       </c>
       <c r="B288" s="36">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C288" s="33">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15863,10 +15863,10 @@
         <v>280</v>
       </c>
       <c r="B289" s="36">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C289" s="33">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15874,10 +15874,10 @@
         <v>280</v>
       </c>
       <c r="B290" s="36">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C290" s="33">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15885,10 +15885,10 @@
         <v>280</v>
       </c>
       <c r="B291" s="36">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C291" s="33">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15896,10 +15896,10 @@
         <v>280</v>
       </c>
       <c r="B292" s="36">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C292" s="33">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15907,10 +15907,10 @@
         <v>280</v>
       </c>
       <c r="B293" s="36">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C293" s="33">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15918,10 +15918,10 @@
         <v>280</v>
       </c>
       <c r="B294" s="36">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C294" s="33">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15929,10 +15929,10 @@
         <v>280</v>
       </c>
       <c r="B295" s="36">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C295" s="33">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -15940,10 +15940,10 @@
         <v>280</v>
       </c>
       <c r="B296" s="36">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C296" s="33">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -15951,10 +15951,10 @@
         <v>280</v>
       </c>
       <c r="B297" s="36">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C297" s="33">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -15962,10 +15962,10 @@
         <v>280</v>
       </c>
       <c r="B298" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C298" s="33">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -15973,10 +15973,10 @@
         <v>280</v>
       </c>
       <c r="B299" s="36">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C299" s="33">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -15984,10 +15984,10 @@
         <v>280</v>
       </c>
       <c r="B300" s="36">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C300" s="33">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -15995,10 +15995,10 @@
         <v>280</v>
       </c>
       <c r="B301" s="36">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C301" s="33">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -16006,10 +16006,10 @@
         <v>280</v>
       </c>
       <c r="B302" s="36">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C302" s="33">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -16017,10 +16017,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="36">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C303" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -16028,10 +16028,10 @@
         <v>280</v>
       </c>
       <c r="B304" s="36">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C304" s="33">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -16039,10 +16039,10 @@
         <v>280</v>
       </c>
       <c r="B305" s="36">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C305" s="33">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -16050,10 +16050,10 @@
         <v>280</v>
       </c>
       <c r="B306" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C306" s="33">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -16061,10 +16061,10 @@
         <v>280</v>
       </c>
       <c r="B307" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C307" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -16072,10 +16072,10 @@
         <v>280</v>
       </c>
       <c r="B308" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C308" s="33">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -16083,10 +16083,10 @@
         <v>280</v>
       </c>
       <c r="B309" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C309" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -16094,10 +16094,10 @@
         <v>280</v>
       </c>
       <c r="B310" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C310" s="33">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -16105,10 +16105,10 @@
         <v>280</v>
       </c>
       <c r="B311" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C311" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -16116,10 +16116,10 @@
         <v>280</v>
       </c>
       <c r="B312" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C312" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -16127,10 +16127,10 @@
         <v>280</v>
       </c>
       <c r="B313" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C313" s="33">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -16138,10 +16138,10 @@
         <v>280</v>
       </c>
       <c r="B314" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C314" s="33">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -16149,10 +16149,10 @@
         <v>280</v>
       </c>
       <c r="B315" s="36">
-        <v>44237</v>
+        <v>44233</v>
       </c>
       <c r="C315" s="33">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -16160,10 +16160,10 @@
         <v>280</v>
       </c>
       <c r="B316" s="36">
-        <v>44238</v>
+        <v>44234</v>
       </c>
       <c r="C316" s="33">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -16171,10 +16171,10 @@
         <v>280</v>
       </c>
       <c r="B317" s="36">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="C317" s="33">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -16182,10 +16182,10 @@
         <v>280</v>
       </c>
       <c r="B318" s="36">
-        <v>44240</v>
+        <v>44236</v>
       </c>
       <c r="C318" s="33">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -16193,10 +16193,54 @@
         <v>280</v>
       </c>
       <c r="B319" s="36">
+        <v>44237</v>
+      </c>
+      <c r="C319" s="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B320" s="36">
+        <v>44238</v>
+      </c>
+      <c r="C320" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B321" s="36">
+        <v>44239</v>
+      </c>
+      <c r="C321" s="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B322" s="36">
+        <v>44240</v>
+      </c>
+      <c r="C322" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B323" s="36">
         <v>44242</v>
       </c>
-      <c r="C319" s="33">
-        <v>2</v>
+      <c r="C323" s="33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
